--- a/Week 5/weather_data.xlsx
+++ b/Week 5/weather_data.xlsx
@@ -469,17 +469,17 @@
         <v>44927</v>
       </c>
       <c r="B2" t="n">
-        <v>26.46440511781974</v>
+        <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>57.51623770611515</v>
+        <v>32</v>
       </c>
       <c r="D2" t="n">
-        <v>10.02126345669504</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -488,13 +488,13 @@
         <v>44928</v>
       </c>
       <c r="B3" t="n">
-        <v>31.45568099117258</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>73.45005819669259</v>
+        <v>77</v>
       </c>
       <c r="D3" t="n">
-        <v>7.527783103887025</v>
+        <v>18</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -507,17 +507,17 @@
         <v>44929</v>
       </c>
       <c r="B4" t="n">
-        <v>28.08290128214932</v>
+        <v>31</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94151930218612</v>
+        <v>57</v>
       </c>
       <c r="D4" t="n">
-        <v>7.298236720424763</v>
+        <v>14</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -526,17 +526,17 @@
         <v>44930</v>
       </c>
       <c r="B5" t="n">
-        <v>26.34649548990691</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>84.24266357405747</v>
+        <v>51</v>
       </c>
       <c r="D5" t="n">
-        <v>5.218089987621195</v>
+        <v>5</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -545,13 +545,13 @@
         <v>44931</v>
       </c>
       <c r="B6" t="n">
-        <v>22.70964398016714</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>71.40150121147364</v>
+        <v>69</v>
       </c>
       <c r="D6" t="n">
-        <v>9.919405907469391</v>
+        <v>4</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -564,13 +564,13 @@
         <v>44932</v>
       </c>
       <c r="B7" t="n">
-        <v>29.37682339199968</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>71.977323255031</v>
+        <v>69</v>
       </c>
       <c r="D7" t="n">
-        <v>13.63479890138722</v>
+        <v>18</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -583,13 +583,13 @@
         <v>44933</v>
       </c>
       <c r="B8" t="n">
-        <v>23.12761633788077</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
-        <v>49.66322409342713</v>
+        <v>41</v>
       </c>
       <c r="D8" t="n">
-        <v>5.54680542610487</v>
+        <v>14</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -602,17 +602,17 @@
         <v>44934</v>
       </c>
       <c r="B9" t="n">
-        <v>36.75319002346239</v>
+        <v>17</v>
       </c>
       <c r="C9" t="n">
-        <v>75.40671856421335</v>
+        <v>52</v>
       </c>
       <c r="D9" t="n">
-        <v>10.4875962215444</v>
+        <v>18</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -621,13 +621,13 @@
         <v>44935</v>
       </c>
       <c r="B10" t="n">
-        <v>38.90988281503088</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>68.16366332682847</v>
+        <v>60</v>
       </c>
       <c r="D10" t="n">
-        <v>2.347605883411144</v>
+        <v>1</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -640,17 +640,17 @@
         <v>44936</v>
       </c>
       <c r="B11" t="n">
-        <v>21.50324556477333</v>
+        <v>29</v>
       </c>
       <c r="C11" t="n">
-        <v>44.40121640278257</v>
+        <v>47</v>
       </c>
       <c r="D11" t="n">
-        <v>3.196905737083826</v>
+        <v>12</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -659,17 +659,17 @@
         <v>44937</v>
       </c>
       <c r="B12" t="n">
-        <v>33.75175114247994</v>
+        <v>31</v>
       </c>
       <c r="C12" t="n">
-        <v>39.63232934911538</v>
+        <v>36</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9361270942437749</v>
+        <v>0</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -678,13 +678,13 @@
         <v>44938</v>
       </c>
       <c r="B13" t="n">
-        <v>25.86684759258713</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>77.7834884710399</v>
+        <v>37</v>
       </c>
       <c r="D13" t="n">
-        <v>19.41462885541266</v>
+        <v>9</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -697,17 +697,17 @@
         <v>44939</v>
       </c>
       <c r="B14" t="n">
-        <v>27.04133683281797</v>
+        <v>14</v>
       </c>
       <c r="C14" t="n">
-        <v>87.54999618211335</v>
+        <v>48</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0772070302052219</v>
+        <v>16</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -716,17 +716,17 @@
         <v>44940</v>
       </c>
       <c r="B15" t="n">
-        <v>37.76789914877983</v>
+        <v>33</v>
       </c>
       <c r="C15" t="n">
-        <v>57.48832963560257</v>
+        <v>58</v>
       </c>
       <c r="D15" t="n">
-        <v>3.571599361153126</v>
+        <v>2</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -735,17 +735,17 @@
         <v>44941</v>
       </c>
       <c r="B16" t="n">
-        <v>12.13108174593661</v>
+        <v>16</v>
       </c>
       <c r="C16" t="n">
-        <v>65.45904991942109</v>
+        <v>73</v>
       </c>
       <c r="D16" t="n">
-        <v>12.25733506233985</v>
+        <v>8</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -754,13 +754,13 @@
         <v>44942</v>
       </c>
       <c r="B17" t="n">
-        <v>12.61387899104622</v>
+        <v>34</v>
       </c>
       <c r="C17" t="n">
-        <v>81.46335865161328</v>
+        <v>49</v>
       </c>
       <c r="D17" t="n">
-        <v>1.627391977066106</v>
+        <v>19</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -773,17 +773,17 @@
         <v>44943</v>
       </c>
       <c r="B18" t="n">
-        <v>10.60655192320977</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>57.43340720123143</v>
+        <v>79</v>
       </c>
       <c r="D18" t="n">
-        <v>17.63793006193665</v>
+        <v>10</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -792,17 +792,17 @@
         <v>44944</v>
       </c>
       <c r="B19" t="n">
-        <v>34.97859536643814</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>87.11246860996417</v>
+        <v>71</v>
       </c>
       <c r="D19" t="n">
-        <v>14.39240315684576</v>
+        <v>16</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -811,17 +811,17 @@
         <v>44945</v>
       </c>
       <c r="B20" t="n">
-        <v>33.34470252849552</v>
+        <v>36</v>
       </c>
       <c r="C20" t="n">
-        <v>64.54506972269235</v>
+        <v>59</v>
       </c>
       <c r="D20" t="n">
-        <v>19.32779942875787</v>
+        <v>1</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -830,13 +830,13 @@
         <v>44946</v>
       </c>
       <c r="B21" t="n">
-        <v>36.10036444740457</v>
+        <v>11</v>
       </c>
       <c r="C21" t="n">
-        <v>79.2460272420789</v>
+        <v>76</v>
       </c>
       <c r="D21" t="n">
-        <v>10.1527109448153</v>
+        <v>0</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -849,17 +849,17 @@
         <v>44947</v>
       </c>
       <c r="B22" t="n">
-        <v>39.35855026698292</v>
+        <v>16</v>
       </c>
       <c r="C22" t="n">
-        <v>84.5306231047643</v>
+        <v>51</v>
       </c>
       <c r="D22" t="n">
-        <v>6.008073663169744</v>
+        <v>5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -868,17 +868,17 @@
         <v>44948</v>
       </c>
       <c r="B23" t="n">
-        <v>33.97475692650171</v>
+        <v>17</v>
       </c>
       <c r="C23" t="n">
-        <v>78.93142912611412</v>
+        <v>39</v>
       </c>
       <c r="D23" t="n">
-        <v>10.99001145590543</v>
+        <v>2</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -887,17 +887,17 @@
         <v>44949</v>
       </c>
       <c r="B24" t="n">
-        <v>23.84438086758795</v>
+        <v>33</v>
       </c>
       <c r="C24" t="n">
-        <v>39.56486780693736</v>
+        <v>55</v>
       </c>
       <c r="D24" t="n">
-        <v>18.61637434595946</v>
+        <v>15</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
         <v>44950</v>
       </c>
       <c r="B25" t="n">
-        <v>33.41587528859367</v>
+        <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>67.73390634370202</v>
+        <v>80</v>
       </c>
       <c r="D25" t="n">
-        <v>10.41522874483721</v>
+        <v>3</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
         <v>44951</v>
       </c>
       <c r="B26" t="n">
-        <v>13.548232776068</v>
+        <v>34</v>
       </c>
       <c r="C26" t="n">
-        <v>53.90605551718063</v>
+        <v>62</v>
       </c>
       <c r="D26" t="n">
-        <v>5.344140637246372</v>
+        <v>14</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -944,17 +944,17 @@
         <v>44952</v>
       </c>
       <c r="B27" t="n">
-        <v>29.19763063982571</v>
+        <v>27</v>
       </c>
       <c r="C27" t="n">
-        <v>33.76277712140075</v>
+        <v>57</v>
       </c>
       <c r="D27" t="n">
-        <v>17.54797578348239</v>
+        <v>5</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -963,17 +963,17 @@
         <v>44953</v>
       </c>
       <c r="B28" t="n">
-        <v>14.30059862227139</v>
+        <v>15</v>
       </c>
       <c r="C28" t="n">
-        <v>55.44193511339051</v>
+        <v>39</v>
       </c>
       <c r="D28" t="n">
-        <v>7.438374970249226</v>
+        <v>11</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -982,13 +982,13 @@
         <v>44954</v>
       </c>
       <c r="B29" t="n">
-        <v>38.34006751148752</v>
+        <v>35</v>
       </c>
       <c r="C29" t="n">
-        <v>45.52104401336446</v>
+        <v>58</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02766699997998279</v>
+        <v>19</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1001,17 +1001,17 @@
         <v>44955</v>
       </c>
       <c r="B30" t="n">
-        <v>25.65544965250215</v>
+        <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>80.94229850571065</v>
+        <v>73</v>
       </c>
       <c r="D30" t="n">
-        <v>4.953700449846319</v>
+        <v>6</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -1020,13 +1020,13 @@
         <v>44956</v>
       </c>
       <c r="B31" t="n">
-        <v>22.43985819971571</v>
+        <v>18</v>
       </c>
       <c r="C31" t="n">
-        <v>31.99827759280177</v>
+        <v>47</v>
       </c>
       <c r="D31" t="n">
-        <v>6.364670183541248</v>
+        <v>6</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1039,13 +1039,13 @@
         <v>44957</v>
       </c>
       <c r="B32" t="n">
-        <v>17.93666836313881</v>
+        <v>19</v>
       </c>
       <c r="C32" t="n">
-        <v>87.53896331180842</v>
+        <v>71</v>
       </c>
       <c r="D32" t="n">
-        <v>17.17554936463804</v>
+        <v>19</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1058,17 +1058,17 @@
         <v>44958</v>
       </c>
       <c r="B33" t="n">
-        <v>33.2270106830265</v>
+        <v>30</v>
       </c>
       <c r="C33" t="n">
-        <v>51.32213090831578</v>
+        <v>88</v>
       </c>
       <c r="D33" t="n">
-        <v>9.1700633413289</v>
+        <v>6</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -1077,17 +1077,17 @@
         <v>44959</v>
       </c>
       <c r="B34" t="n">
-        <v>23.68450996649646</v>
+        <v>29</v>
       </c>
       <c r="C34" t="n">
-        <v>51.40241342415257</v>
+        <v>30</v>
       </c>
       <c r="D34" t="n">
-        <v>8.891745756226015</v>
+        <v>2</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1096,17 @@
         <v>44960</v>
       </c>
       <c r="B35" t="n">
-        <v>27.05301846605946</v>
+        <v>26</v>
       </c>
       <c r="C35" t="n">
-        <v>30.97971016102247</v>
+        <v>52</v>
       </c>
       <c r="D35" t="n">
-        <v>6.722045327997748</v>
+        <v>6</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -1115,17 +1115,17 @@
         <v>44961</v>
       </c>
       <c r="B36" t="n">
-        <v>10.56369401309065</v>
+        <v>29</v>
       </c>
       <c r="C36" t="n">
-        <v>41.11393951417104</v>
+        <v>46</v>
       </c>
       <c r="D36" t="n">
-        <v>17.61356246094159</v>
+        <v>5</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -1134,13 +1134,13 @@
         <v>44962</v>
       </c>
       <c r="B37" t="n">
-        <v>28.52906491227631</v>
+        <v>15</v>
       </c>
       <c r="C37" t="n">
-        <v>54.07557004821652</v>
+        <v>72</v>
       </c>
       <c r="D37" t="n">
-        <v>18.90053553880783</v>
+        <v>5</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1153,17 +1153,17 @@
         <v>44963</v>
       </c>
       <c r="B38" t="n">
-        <v>28.36287168167264</v>
+        <v>25</v>
       </c>
       <c r="C38" t="n">
-        <v>85.75748503816283</v>
+        <v>66</v>
       </c>
       <c r="D38" t="n">
-        <v>19.83780658309259</v>
+        <v>13</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -1172,17 +1172,17 @@
         <v>44964</v>
       </c>
       <c r="B39" t="n">
-        <v>28.50801990624271</v>
+        <v>25</v>
       </c>
       <c r="C39" t="n">
-        <v>35.97689581327628</v>
+        <v>60</v>
       </c>
       <c r="D39" t="n">
-        <v>7.534825339219735</v>
+        <v>9</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -1191,13 +1191,13 @@
         <v>44965</v>
       </c>
       <c r="B40" t="n">
-        <v>38.31244235543873</v>
+        <v>10</v>
       </c>
       <c r="C40" t="n">
-        <v>86.71809200874478</v>
+        <v>54</v>
       </c>
       <c r="D40" t="n">
-        <v>19.32294891254343</v>
+        <v>4</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1210,13 +1210,13 @@
         <v>44966</v>
       </c>
       <c r="B41" t="n">
-        <v>30.4546089731045</v>
+        <v>28</v>
       </c>
       <c r="C41" t="n">
-        <v>82.16931183279793</v>
+        <v>82</v>
       </c>
       <c r="D41" t="n">
-        <v>15.83759139261803</v>
+        <v>13</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1229,13 +1229,13 @@
         <v>44967</v>
       </c>
       <c r="B42" t="n">
-        <v>20.78523701721358</v>
+        <v>13</v>
       </c>
       <c r="C42" t="n">
-        <v>57.24974381445311</v>
+        <v>33</v>
       </c>
       <c r="D42" t="n">
-        <v>13.51378295288534</v>
+        <v>17</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1248,13 +1248,13 @@
         <v>44968</v>
       </c>
       <c r="B43" t="n">
-        <v>23.11095861398024</v>
+        <v>34</v>
       </c>
       <c r="C43" t="n">
-        <v>49.60205290609561</v>
+        <v>81</v>
       </c>
       <c r="D43" t="n">
-        <v>4.897789588401988</v>
+        <v>3</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1267,13 +1267,13 @@
         <v>44969</v>
       </c>
       <c r="B44" t="n">
-        <v>30.92893587781795</v>
+        <v>27</v>
       </c>
       <c r="C44" t="n">
-        <v>43.96464775674341</v>
+        <v>38</v>
       </c>
       <c r="D44" t="n">
-        <v>4.329145218884197</v>
+        <v>13</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1286,17 +1286,17 @@
         <v>44970</v>
       </c>
       <c r="B45" t="n">
-        <v>11.80676414887809</v>
+        <v>29</v>
       </c>
       <c r="C45" t="n">
-        <v>66.86788238861246</v>
+        <v>86</v>
       </c>
       <c r="D45" t="n">
-        <v>3.320956490424913</v>
+        <v>19</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -1305,13 +1305,13 @@
         <v>44971</v>
       </c>
       <c r="B46" t="n">
-        <v>30.00300146337003</v>
+        <v>39</v>
       </c>
       <c r="C46" t="n">
-        <v>31.98447548853034</v>
+        <v>57</v>
       </c>
       <c r="D46" t="n">
-        <v>18.45513220450731</v>
+        <v>8</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1324,17 +1324,17 @@
         <v>44972</v>
       </c>
       <c r="B47" t="n">
-        <v>30.11913608854478</v>
+        <v>29</v>
       </c>
       <c r="C47" t="n">
-        <v>30.93636386680969</v>
+        <v>59</v>
       </c>
       <c r="D47" t="n">
-        <v>5.881533247663322</v>
+        <v>13</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -1343,17 +1343,17 @@
         <v>44973</v>
       </c>
       <c r="B48" t="n">
-        <v>16.31147683221523</v>
+        <v>29</v>
       </c>
       <c r="C48" t="n">
-        <v>55.72774334989427</v>
+        <v>89</v>
       </c>
       <c r="D48" t="n">
-        <v>9.061884908977568</v>
+        <v>5</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -1362,17 +1362,17 @@
         <v>44974</v>
       </c>
       <c r="B49" t="n">
-        <v>13.8677889296456</v>
+        <v>24</v>
       </c>
       <c r="C49" t="n">
-        <v>34.08444443848321</v>
+        <v>76</v>
       </c>
       <c r="D49" t="n">
-        <v>9.879156679744469</v>
+        <v>16</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -1381,17 +1381,17 @@
         <v>44975</v>
       </c>
       <c r="B50" t="n">
-        <v>19.46285052772551</v>
+        <v>17</v>
       </c>
       <c r="C50" t="n">
-        <v>45.11645929476558</v>
+        <v>53</v>
       </c>
       <c r="D50" t="n">
-        <v>15.56343190900508</v>
+        <v>14</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -1400,17 +1400,17 @@
         <v>44976</v>
       </c>
       <c r="B51" t="n">
-        <v>20.91132312827868</v>
+        <v>10</v>
       </c>
       <c r="C51" t="n">
-        <v>43.26965492076503</v>
+        <v>62</v>
       </c>
       <c r="D51" t="n">
-        <v>16.88469923106048</v>
+        <v>5</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -1419,17 +1419,17 @@
         <v>44977</v>
       </c>
       <c r="B52" t="n">
-        <v>27.10590311253639</v>
+        <v>11</v>
       </c>
       <c r="C52" t="n">
-        <v>45.19147162337111</v>
+        <v>49</v>
       </c>
       <c r="D52" t="n">
-        <v>2.781454022972256</v>
+        <v>1</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -1438,13 +1438,13 @@
         <v>44978</v>
       </c>
       <c r="B53" t="n">
-        <v>23.15804540386961</v>
+        <v>19</v>
       </c>
       <c r="C53" t="n">
-        <v>37.86331387291546</v>
+        <v>38</v>
       </c>
       <c r="D53" t="n">
-        <v>8.538087204221474</v>
+        <v>5</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1457,17 +1457,17 @@
         <v>44979</v>
       </c>
       <c r="B54" t="n">
-        <v>39.65121514177679</v>
+        <v>35</v>
       </c>
       <c r="C54" t="n">
-        <v>30.72217337385926</v>
+        <v>37</v>
       </c>
       <c r="D54" t="n">
-        <v>16.85709775670914</v>
+        <v>6</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -1476,17 +1476,17 @@
         <v>44980</v>
       </c>
       <c r="B55" t="n">
-        <v>13.06134432244084</v>
+        <v>10</v>
       </c>
       <c r="C55" t="n">
-        <v>36.92905782832489</v>
+        <v>53</v>
       </c>
       <c r="D55" t="n">
-        <v>16.36066611511677</v>
+        <v>12</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -1495,13 +1495,13 @@
         <v>44981</v>
       </c>
       <c r="B56" t="n">
-        <v>16.26630268284504</v>
+        <v>20</v>
       </c>
       <c r="C56" t="n">
-        <v>67.10881557076488</v>
+        <v>43</v>
       </c>
       <c r="D56" t="n">
-        <v>2.048275169048328</v>
+        <v>10</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1514,17 +1514,17 @@
         <v>44982</v>
       </c>
       <c r="B57" t="n">
-        <v>14.83928553654989</v>
+        <v>30</v>
       </c>
       <c r="C57" t="n">
-        <v>88.45537276908303</v>
+        <v>88</v>
       </c>
       <c r="D57" t="n">
-        <v>3.12766697735926</v>
+        <v>14</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -1533,17 +1533,17 @@
         <v>44983</v>
       </c>
       <c r="B58" t="n">
-        <v>29.59324976396195</v>
+        <v>33</v>
       </c>
       <c r="C58" t="n">
-        <v>89.42070009365364</v>
+        <v>47</v>
       </c>
       <c r="D58" t="n">
-        <v>6.083973831988157</v>
+        <v>8</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -1552,17 +1552,17 @@
         <v>44984</v>
       </c>
       <c r="B59" t="n">
-        <v>17.59874807619346</v>
+        <v>13</v>
       </c>
       <c r="C59" t="n">
-        <v>54.54324572238369</v>
+        <v>86</v>
       </c>
       <c r="D59" t="n">
-        <v>1.507181381666807</v>
+        <v>7</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -1571,17 +1571,17 @@
         <v>44985</v>
       </c>
       <c r="B60" t="n">
-        <v>23.98932318568919</v>
+        <v>21</v>
       </c>
       <c r="C60" t="n">
-        <v>39.77726556279632</v>
+        <v>82</v>
       </c>
       <c r="D60" t="n">
-        <v>8.493260056811858</v>
+        <v>13</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -1590,17 +1590,17 @@
         <v>44986</v>
       </c>
       <c r="B61" t="n">
-        <v>17.33276776004808</v>
+        <v>28</v>
       </c>
       <c r="C61" t="n">
-        <v>68.32570544199176</v>
+        <v>85</v>
       </c>
       <c r="D61" t="n">
-        <v>2.152354102991638</v>
+        <v>5</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -1609,13 +1609,13 @@
         <v>44987</v>
       </c>
       <c r="B62" t="n">
-        <v>14.76908750936559</v>
+        <v>33</v>
       </c>
       <c r="C62" t="n">
-        <v>59.41832079292423</v>
+        <v>30</v>
       </c>
       <c r="D62" t="n">
-        <v>11.3643518733969</v>
+        <v>15</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1628,13 +1628,13 @@
         <v>44988</v>
       </c>
       <c r="B63" t="n">
-        <v>13.31125423492916</v>
+        <v>38</v>
       </c>
       <c r="C63" t="n">
-        <v>89.36458663706588</v>
+        <v>41</v>
       </c>
       <c r="D63" t="n">
-        <v>4.931138796223122</v>
+        <v>10</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1647,17 +1647,17 @@
         <v>44989</v>
       </c>
       <c r="B64" t="n">
-        <v>29.6898876839582</v>
+        <v>12</v>
       </c>
       <c r="C64" t="n">
-        <v>33.91825242910681</v>
+        <v>58</v>
       </c>
       <c r="D64" t="n">
-        <v>11.92866130699245</v>
+        <v>3</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -1666,17 +1666,17 @@
         <v>44990</v>
       </c>
       <c r="B65" t="n">
-        <v>14.14548854045841</v>
+        <v>10</v>
       </c>
       <c r="C65" t="n">
-        <v>76.99406629882878</v>
+        <v>66</v>
       </c>
       <c r="D65" t="n">
-        <v>2.350512858072753</v>
+        <v>10</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -1685,13 +1685,13 @@
         <v>44991</v>
       </c>
       <c r="B66" t="n">
-        <v>15.89747085040161</v>
+        <v>10</v>
       </c>
       <c r="C66" t="n">
-        <v>47.30390983988963</v>
+        <v>55</v>
       </c>
       <c r="D66" t="n">
-        <v>19.51767736837067</v>
+        <v>18</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1704,17 +1704,17 @@
         <v>44992</v>
       </c>
       <c r="B67" t="n">
-        <v>21.06175511982892</v>
+        <v>14</v>
       </c>
       <c r="C67" t="n">
-        <v>44.48511720459444</v>
+        <v>62</v>
       </c>
       <c r="D67" t="n">
-        <v>18.65122407714681</v>
+        <v>3</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -1723,17 +1723,17 @@
         <v>44993</v>
       </c>
       <c r="B68" t="n">
-        <v>34.62979689543805</v>
+        <v>31</v>
       </c>
       <c r="C68" t="n">
-        <v>69.75027429196055</v>
+        <v>72</v>
       </c>
       <c r="D68" t="n">
-        <v>7.835938771293316</v>
+        <v>14</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -1742,17 +1742,17 @@
         <v>44994</v>
       </c>
       <c r="B69" t="n">
-        <v>12.91303827379184</v>
+        <v>15</v>
       </c>
       <c r="C69" t="n">
-        <v>44.76379109945787</v>
+        <v>44</v>
       </c>
       <c r="D69" t="n">
-        <v>4.843571882521709</v>
+        <v>18</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -1761,17 +1761,17 @@
         <v>44995</v>
       </c>
       <c r="B70" t="n">
-        <v>35.13834722496412</v>
+        <v>16</v>
       </c>
       <c r="C70" t="n">
-        <v>69.95154705355125</v>
+        <v>52</v>
       </c>
       <c r="D70" t="n">
-        <v>5.007964257071455</v>
+        <v>5</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -1780,13 +1780,13 @@
         <v>44996</v>
       </c>
       <c r="B71" t="n">
-        <v>12.88295223681889</v>
+        <v>18</v>
       </c>
       <c r="C71" t="n">
-        <v>61.03851103213732</v>
+        <v>58</v>
       </c>
       <c r="D71" t="n">
-        <v>9.667870704047841</v>
+        <v>4</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1799,17 +1799,17 @@
         <v>44997</v>
       </c>
       <c r="B72" t="n">
-        <v>39.29378395040187</v>
+        <v>30</v>
       </c>
       <c r="C72" t="n">
-        <v>55.44533930615096</v>
+        <v>50</v>
       </c>
       <c r="D72" t="n">
-        <v>0.7998560380143394</v>
+        <v>17</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -1818,17 +1818,17 @@
         <v>44998</v>
       </c>
       <c r="B73" t="n">
-        <v>24.05953604943105</v>
+        <v>27</v>
       </c>
       <c r="C73" t="n">
-        <v>63.28126851968514</v>
+        <v>48</v>
       </c>
       <c r="D73" t="n">
-        <v>12.79410212150254</v>
+        <v>5</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -1837,17 +1837,17 @@
         <v>44999</v>
       </c>
       <c r="B74" t="n">
-        <v>39.30283264571011</v>
+        <v>25</v>
       </c>
       <c r="C74" t="n">
-        <v>47.22309119517779</v>
+        <v>34</v>
       </c>
       <c r="D74" t="n">
-        <v>8.166058166794896</v>
+        <v>3</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -1856,17 +1856,17 @@
         <v>45000</v>
       </c>
       <c r="B75" t="n">
-        <v>28.14536559235138</v>
+        <v>14</v>
       </c>
       <c r="C75" t="n">
-        <v>72.39448237637873</v>
+        <v>52</v>
       </c>
       <c r="D75" t="n">
-        <v>7.548131451777746</v>
+        <v>5</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -1875,17 +1875,17 @@
         <v>45001</v>
       </c>
       <c r="B76" t="n">
-        <v>32.17790738194905</v>
+        <v>19</v>
       </c>
       <c r="C76" t="n">
-        <v>54.89141216001384</v>
+        <v>65</v>
       </c>
       <c r="D76" t="n">
-        <v>16.18729942978397</v>
+        <v>8</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -1894,13 +1894,13 @@
         <v>45002</v>
       </c>
       <c r="B77" t="n">
-        <v>11.17563376762962</v>
+        <v>20</v>
       </c>
       <c r="C77" t="n">
-        <v>51.63273362915353</v>
+        <v>88</v>
       </c>
       <c r="D77" t="n">
-        <v>14.1807092036658</v>
+        <v>4</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -1913,17 +1913,17 @@
         <v>45003</v>
       </c>
       <c r="B78" t="n">
-        <v>18.48420887729229</v>
+        <v>36</v>
       </c>
       <c r="C78" t="n">
-        <v>79.71941487334426</v>
+        <v>49</v>
       </c>
       <c r="D78" t="n">
-        <v>19.08667630785384</v>
+        <v>17</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -1932,13 +1932,13 @@
         <v>45004</v>
       </c>
       <c r="B79" t="n">
-        <v>13.60589683639507</v>
+        <v>34</v>
       </c>
       <c r="C79" t="n">
-        <v>85.49801471719152</v>
+        <v>37</v>
       </c>
       <c r="D79" t="n">
-        <v>7.038724809913814</v>
+        <v>1</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -1951,17 +1951,17 @@
         <v>45005</v>
       </c>
       <c r="B80" t="n">
-        <v>18.88420592566435</v>
+        <v>11</v>
       </c>
       <c r="C80" t="n">
-        <v>32.76043865323781</v>
+        <v>38</v>
       </c>
       <c r="D80" t="n">
-        <v>17.95085529298811</v>
+        <v>18</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -1970,13 +1970,13 @@
         <v>45006</v>
       </c>
       <c r="B81" t="n">
-        <v>13.56183156862732</v>
+        <v>11</v>
       </c>
       <c r="C81" t="n">
-        <v>43.95761956978593</v>
+        <v>43</v>
       </c>
       <c r="D81" t="n">
-        <v>15.39934372500178</v>
+        <v>1</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -1989,17 +1989,17 @@
         <v>45007</v>
       </c>
       <c r="B82" t="n">
-        <v>19.53949538181928</v>
+        <v>17</v>
       </c>
       <c r="C82" t="n">
-        <v>50.91116216955379</v>
+        <v>35</v>
       </c>
       <c r="D82" t="n">
-        <v>7.148493031894261</v>
+        <v>14</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -2008,17 +2008,17 @@
         <v>45008</v>
       </c>
       <c r="B83" t="n">
-        <v>22.4278898354401</v>
+        <v>19</v>
       </c>
       <c r="C83" t="n">
-        <v>78.89798876221485</v>
+        <v>30</v>
       </c>
       <c r="D83" t="n">
-        <v>12.43330872906516</v>
+        <v>17</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -2027,17 +2027,17 @@
         <v>45009</v>
       </c>
       <c r="B84" t="n">
-        <v>11.92442489046353</v>
+        <v>35</v>
       </c>
       <c r="C84" t="n">
-        <v>89.12948565859784</v>
+        <v>38</v>
       </c>
       <c r="D84" t="n">
-        <v>5.771399153033911</v>
+        <v>7</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -2046,17 +2046,17 @@
         <v>45010</v>
       </c>
       <c r="B85" t="n">
-        <v>30.77416358110059</v>
+        <v>13</v>
       </c>
       <c r="C85" t="n">
-        <v>88.1383022802211</v>
+        <v>45</v>
       </c>
       <c r="D85" t="n">
-        <v>17.48799834149685</v>
+        <v>11</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -2065,17 +2065,17 @@
         <v>45011</v>
       </c>
       <c r="B86" t="n">
-        <v>26.99804362619725</v>
+        <v>16</v>
       </c>
       <c r="C86" t="n">
-        <v>84.29690073299561</v>
+        <v>45</v>
       </c>
       <c r="D86" t="n">
-        <v>2.248546344246225</v>
+        <v>14</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2084,17 +2084,17 @@
         <v>45012</v>
       </c>
       <c r="B87" t="n">
-        <v>17.96168472818336</v>
+        <v>33</v>
       </c>
       <c r="C87" t="n">
-        <v>47.79337590384179</v>
+        <v>83</v>
       </c>
       <c r="D87" t="n">
-        <v>4.24868722588082</v>
+        <v>16</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -2103,13 +2103,13 @@
         <v>45013</v>
       </c>
       <c r="B88" t="n">
-        <v>25.69744160400099</v>
+        <v>21</v>
       </c>
       <c r="C88" t="n">
-        <v>89.52067460486845</v>
+        <v>41</v>
       </c>
       <c r="D88" t="n">
-        <v>3.660665841598423</v>
+        <v>1</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -2122,13 +2122,13 @@
         <v>45014</v>
       </c>
       <c r="B89" t="n">
-        <v>12.81821532275325</v>
+        <v>24</v>
       </c>
       <c r="C89" t="n">
-        <v>44.96520246338707</v>
+        <v>34</v>
       </c>
       <c r="D89" t="n">
-        <v>8.060520048085774</v>
+        <v>17</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
@@ -2141,17 +2141,17 @@
         <v>45015</v>
       </c>
       <c r="B90" t="n">
-        <v>27.27839486668538</v>
+        <v>28</v>
       </c>
       <c r="C90" t="n">
-        <v>36.35436929293393</v>
+        <v>69</v>
       </c>
       <c r="D90" t="n">
-        <v>14.90465920064258</v>
+        <v>12</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -2160,13 +2160,13 @@
         <v>45016</v>
       </c>
       <c r="B91" t="n">
-        <v>37.87888592728642</v>
+        <v>37</v>
       </c>
       <c r="C91" t="n">
-        <v>87.05715666332364</v>
+        <v>58</v>
       </c>
       <c r="D91" t="n">
-        <v>10.53814898104361</v>
+        <v>14</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -2179,17 +2179,17 @@
         <v>45017</v>
       </c>
       <c r="B92" t="n">
-        <v>19.55706857353971</v>
+        <v>10</v>
       </c>
       <c r="C92" t="n">
-        <v>44.00521532808578</v>
+        <v>75</v>
       </c>
       <c r="D92" t="n">
-        <v>9.75352647076415</v>
+        <v>0</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -2198,17 +2198,17 @@
         <v>45018</v>
       </c>
       <c r="B93" t="n">
-        <v>30.02231139891045</v>
+        <v>24</v>
       </c>
       <c r="C93" t="n">
-        <v>71.38609590466503</v>
+        <v>56</v>
       </c>
       <c r="D93" t="n">
-        <v>0.01091929793991309</v>
+        <v>2</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2217,17 +2217,17 @@
         <v>45019</v>
       </c>
       <c r="B94" t="n">
-        <v>13.95393587213177</v>
+        <v>13</v>
       </c>
       <c r="C94" t="n">
-        <v>33.50138153883532</v>
+        <v>40</v>
       </c>
       <c r="D94" t="n">
-        <v>8.508034507101094</v>
+        <v>19</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -2236,17 +2236,17 @@
         <v>45020</v>
       </c>
       <c r="B95" t="n">
-        <v>31.48981612355697</v>
+        <v>31</v>
       </c>
       <c r="C95" t="n">
-        <v>73.84254594764857</v>
+        <v>82</v>
       </c>
       <c r="D95" t="n">
-        <v>1.271075496723169</v>
+        <v>14</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2255,13 +2255,13 @@
         <v>45021</v>
       </c>
       <c r="B96" t="n">
-        <v>18.68218278841603</v>
+        <v>22</v>
       </c>
       <c r="C96" t="n">
-        <v>82.90321274003038</v>
+        <v>76</v>
       </c>
       <c r="D96" t="n">
-        <v>4.165065042429676</v>
+        <v>18</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -2274,17 +2274,17 @@
         <v>45022</v>
       </c>
       <c r="B97" t="n">
-        <v>15.49574086021351</v>
+        <v>35</v>
       </c>
       <c r="C97" t="n">
-        <v>46.34621372795775</v>
+        <v>79</v>
       </c>
       <c r="D97" t="n">
-        <v>18.64787877920989</v>
+        <v>11</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -2293,17 +2293,17 @@
         <v>45023</v>
       </c>
       <c r="B98" t="n">
-        <v>27.5953880443025</v>
+        <v>20</v>
       </c>
       <c r="C98" t="n">
-        <v>52.74341376464571</v>
+        <v>57</v>
       </c>
       <c r="D98" t="n">
-        <v>4.307964086864764</v>
+        <v>9</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2312,17 +2312,17 @@
         <v>45024</v>
       </c>
       <c r="B99" t="n">
-        <v>10.60322638562481</v>
+        <v>30</v>
       </c>
       <c r="C99" t="n">
-        <v>52.45777099925496</v>
+        <v>81</v>
       </c>
       <c r="D99" t="n">
-        <v>17.16675277268525</v>
+        <v>14</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -2331,17 +2331,17 @@
         <v>45025</v>
       </c>
       <c r="B100" t="n">
-        <v>34.86820087652089</v>
+        <v>21</v>
       </c>
       <c r="C100" t="n">
-        <v>74.92729545240799</v>
+        <v>65</v>
       </c>
       <c r="D100" t="n">
-        <v>16.05786743122668</v>
+        <v>0</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2350,17 +2350,17 @@
         <v>45026</v>
       </c>
       <c r="B101" t="n">
-        <v>10.14086428577641</v>
+        <v>14</v>
       </c>
       <c r="C101" t="n">
-        <v>44.26843455234233</v>
+        <v>71</v>
       </c>
       <c r="D101" t="n">
-        <v>3.182924738844857</v>
+        <v>12</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2369,17 +2369,17 @@
         <v>45027</v>
       </c>
       <c r="B102" t="n">
-        <v>30.3344961038869</v>
+        <v>16</v>
       </c>
       <c r="C102" t="n">
-        <v>40.31118594285858</v>
+        <v>48</v>
       </c>
       <c r="D102" t="n">
-        <v>12.11423914540558</v>
+        <v>9</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -2388,17 +2388,17 @@
         <v>45028</v>
       </c>
       <c r="B103" t="n">
-        <v>18.10023919576495</v>
+        <v>14</v>
       </c>
       <c r="C103" t="n">
-        <v>56.95749892126429</v>
+        <v>83</v>
       </c>
       <c r="D103" t="n">
-        <v>2.313237438100266</v>
+        <v>18</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -2407,17 +2407,17 @@
         <v>45029</v>
       </c>
       <c r="B104" t="n">
-        <v>32.05582066367785</v>
+        <v>25</v>
       </c>
       <c r="C104" t="n">
-        <v>48.26810444263917</v>
+        <v>64</v>
       </c>
       <c r="D104" t="n">
-        <v>14.55776316739023</v>
+        <v>4</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -2426,17 +2426,17 @@
         <v>45030</v>
       </c>
       <c r="B105" t="n">
-        <v>38.86565635352315</v>
+        <v>30</v>
       </c>
       <c r="C105" t="n">
-        <v>80.35134733551914</v>
+        <v>81</v>
       </c>
       <c r="D105" t="n">
-        <v>12.74924554744413</v>
+        <v>7</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2445,17 +2445,17 @@
         <v>45031</v>
       </c>
       <c r="B106" t="n">
-        <v>17.46259430559874</v>
+        <v>13</v>
       </c>
       <c r="C106" t="n">
-        <v>44.26450956093832</v>
+        <v>60</v>
       </c>
       <c r="D106" t="n">
-        <v>16.23877123382039</v>
+        <v>3</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2464,13 +2464,13 @@
         <v>45032</v>
       </c>
       <c r="B107" t="n">
-        <v>27.28472003253511</v>
+        <v>22</v>
       </c>
       <c r="C107" t="n">
-        <v>60.14336744935569</v>
+        <v>83</v>
       </c>
       <c r="D107" t="n">
-        <v>9.587690987783761</v>
+        <v>16</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2483,17 +2483,17 @@
         <v>45033</v>
       </c>
       <c r="B108" t="n">
-        <v>27.76125793815517</v>
+        <v>14</v>
       </c>
       <c r="C108" t="n">
-        <v>86.55501598187583</v>
+        <v>88</v>
       </c>
       <c r="D108" t="n">
-        <v>18.29726175666766</v>
+        <v>12</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2502,17 +2502,17 @@
         <v>45034</v>
       </c>
       <c r="B109" t="n">
-        <v>27.1675571737262</v>
+        <v>30</v>
       </c>
       <c r="C109" t="n">
-        <v>68.03986186467964</v>
+        <v>73</v>
       </c>
       <c r="D109" t="n">
-        <v>0.9869789357687941</v>
+        <v>5</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -2521,17 +2521,17 @@
         <v>45035</v>
       </c>
       <c r="B110" t="n">
-        <v>16.69244897921855</v>
+        <v>18</v>
       </c>
       <c r="C110" t="n">
-        <v>82.03736432774789</v>
+        <v>85</v>
       </c>
       <c r="D110" t="n">
-        <v>5.857771300540293</v>
+        <v>13</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -2540,17 +2540,17 @@
         <v>45036</v>
       </c>
       <c r="B111" t="n">
-        <v>38.58247034550955</v>
+        <v>24</v>
       </c>
       <c r="C111" t="n">
-        <v>86.41258136128604</v>
+        <v>48</v>
       </c>
       <c r="D111" t="n">
-        <v>14.30105194930334</v>
+        <v>16</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2559,17 +2559,17 @@
         <v>45037</v>
       </c>
       <c r="B112" t="n">
-        <v>23.41376135852882</v>
+        <v>25</v>
       </c>
       <c r="C112" t="n">
-        <v>75.04589171318111</v>
+        <v>75</v>
       </c>
       <c r="D112" t="n">
-        <v>8.362184234960017</v>
+        <v>13</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -2578,17 +2578,17 @@
         <v>45038</v>
       </c>
       <c r="B113" t="n">
-        <v>35.39226017413384</v>
+        <v>30</v>
       </c>
       <c r="C113" t="n">
-        <v>71.97450361348508</v>
+        <v>53</v>
       </c>
       <c r="D113" t="n">
-        <v>3.459027085423128</v>
+        <v>18</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -2597,17 +2597,17 @@
         <v>45039</v>
       </c>
       <c r="B114" t="n">
-        <v>30.98437825952513</v>
+        <v>13</v>
       </c>
       <c r="C114" t="n">
-        <v>88.07793399625362</v>
+        <v>31</v>
       </c>
       <c r="D114" t="n">
-        <v>2.144214908570921</v>
+        <v>19</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2616,13 +2616,13 @@
         <v>45040</v>
       </c>
       <c r="B115" t="n">
-        <v>18.92310852565401</v>
+        <v>36</v>
       </c>
       <c r="C115" t="n">
-        <v>89.66404737886077</v>
+        <v>36</v>
       </c>
       <c r="D115" t="n">
-        <v>16.34678222923243</v>
+        <v>17</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -2635,17 +2635,17 @@
         <v>45041</v>
       </c>
       <c r="B116" t="n">
-        <v>34.41393459107432</v>
+        <v>33</v>
       </c>
       <c r="C116" t="n">
-        <v>57.10930096018558</v>
+        <v>72</v>
       </c>
       <c r="D116" t="n">
-        <v>9.462859569312885</v>
+        <v>7</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2654,13 +2654,13 @@
         <v>45042</v>
       </c>
       <c r="B117" t="n">
-        <v>21.89517222540954</v>
+        <v>25</v>
       </c>
       <c r="C117" t="n">
-        <v>34.2521866910525</v>
+        <v>83</v>
       </c>
       <c r="D117" t="n">
-        <v>17.64567343838215</v>
+        <v>17</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -2673,13 +2673,13 @@
         <v>45043</v>
       </c>
       <c r="B118" t="n">
-        <v>36.43309591333485</v>
+        <v>23</v>
       </c>
       <c r="C118" t="n">
-        <v>47.56764188643113</v>
+        <v>78</v>
       </c>
       <c r="D118" t="n">
-        <v>14.66578268633452</v>
+        <v>14</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -2692,17 +2692,17 @@
         <v>45044</v>
       </c>
       <c r="B119" t="n">
-        <v>27.43818617907576</v>
+        <v>31</v>
       </c>
       <c r="C119" t="n">
-        <v>39.14128234126383</v>
+        <v>60</v>
       </c>
       <c r="D119" t="n">
-        <v>8.194524112614872</v>
+        <v>3</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -2711,13 +2711,13 @@
         <v>45045</v>
       </c>
       <c r="B120" t="n">
-        <v>36.45206085564558</v>
+        <v>31</v>
       </c>
       <c r="C120" t="n">
-        <v>55.04918248776071</v>
+        <v>89</v>
       </c>
       <c r="D120" t="n">
-        <v>7.470220283113673</v>
+        <v>10</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -2730,17 +2730,17 @@
         <v>45046</v>
       </c>
       <c r="B121" t="n">
-        <v>30.77594770233298</v>
+        <v>26</v>
       </c>
       <c r="C121" t="n">
-        <v>37.87735970839536</v>
+        <v>46</v>
       </c>
       <c r="D121" t="n">
-        <v>10.31276693302503</v>
+        <v>10</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2749,13 +2749,13 @@
         <v>45047</v>
       </c>
       <c r="B122" t="n">
-        <v>31.75762839458922</v>
+        <v>27</v>
       </c>
       <c r="C122" t="n">
-        <v>66.24706824125292</v>
+        <v>56</v>
       </c>
       <c r="D122" t="n">
-        <v>17.78119906379457</v>
+        <v>1</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -2768,13 +2768,13 @@
         <v>45048</v>
       </c>
       <c r="B123" t="n">
-        <v>25.03973145780107</v>
+        <v>15</v>
       </c>
       <c r="C123" t="n">
-        <v>52.96848354947124</v>
+        <v>65</v>
       </c>
       <c r="D123" t="n">
-        <v>14.74557159428336</v>
+        <v>16</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -2787,17 +2787,17 @@
         <v>45049</v>
       </c>
       <c r="B124" t="n">
-        <v>38.68250904169672</v>
+        <v>19</v>
       </c>
       <c r="C124" t="n">
-        <v>83.72315305729259</v>
+        <v>88</v>
       </c>
       <c r="D124" t="n">
-        <v>0.1030592853804646</v>
+        <v>10</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2806,17 +2806,17 @@
         <v>45050</v>
       </c>
       <c r="B125" t="n">
-        <v>29.31970597688912</v>
+        <v>13</v>
       </c>
       <c r="C125" t="n">
-        <v>88.06768030791011</v>
+        <v>79</v>
       </c>
       <c r="D125" t="n">
-        <v>13.88315702738251</v>
+        <v>18</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -2825,17 +2825,17 @@
         <v>45051</v>
       </c>
       <c r="B126" t="n">
-        <v>22.71565145674539</v>
+        <v>10</v>
       </c>
       <c r="C126" t="n">
-        <v>62.81309410016533</v>
+        <v>72</v>
       </c>
       <c r="D126" t="n">
-        <v>18.39014813811641</v>
+        <v>16</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -2844,13 +2844,13 @@
         <v>45052</v>
       </c>
       <c r="B127" t="n">
-        <v>28.19179642383773</v>
+        <v>15</v>
       </c>
       <c r="C127" t="n">
-        <v>46.4894141920558</v>
+        <v>39</v>
       </c>
       <c r="D127" t="n">
-        <v>14.20911519008983</v>
+        <v>2</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -2863,17 +2863,17 @@
         <v>45053</v>
       </c>
       <c r="B128" t="n">
-        <v>10.57579594928001</v>
+        <v>10</v>
       </c>
       <c r="C128" t="n">
-        <v>65.53382512571021</v>
+        <v>74</v>
       </c>
       <c r="D128" t="n">
-        <v>3.540115631349918</v>
+        <v>6</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -2882,13 +2882,13 @@
         <v>45054</v>
       </c>
       <c r="B129" t="n">
-        <v>19.04724450023648</v>
+        <v>27</v>
       </c>
       <c r="C129" t="n">
-        <v>83.80566949346459</v>
+        <v>43</v>
       </c>
       <c r="D129" t="n">
-        <v>9.670362548549175</v>
+        <v>9</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -2901,17 +2901,17 @@
         <v>45055</v>
       </c>
       <c r="B130" t="n">
-        <v>29.80520612478055</v>
+        <v>28</v>
       </c>
       <c r="C130" t="n">
-        <v>54.4040007501449</v>
+        <v>87</v>
       </c>
       <c r="D130" t="n">
-        <v>2.806320358468388</v>
+        <v>2</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2920,17 +2920,17 @@
         <v>45056</v>
       </c>
       <c r="B131" t="n">
-        <v>18.70232821631332</v>
+        <v>14</v>
       </c>
       <c r="C131" t="n">
-        <v>63.12469660151825</v>
+        <v>36</v>
       </c>
       <c r="D131" t="n">
-        <v>7.179905566792641</v>
+        <v>12</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -2939,17 +2939,17 @@
         <v>45057</v>
       </c>
       <c r="B132" t="n">
-        <v>28.54046286996525</v>
+        <v>12</v>
       </c>
       <c r="C132" t="n">
-        <v>46.29916605636875</v>
+        <v>68</v>
       </c>
       <c r="D132" t="n">
-        <v>18.74234083881035</v>
+        <v>9</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -2958,17 +2958,17 @@
         <v>45058</v>
       </c>
       <c r="B133" t="n">
-        <v>22.86306102837298</v>
+        <v>26</v>
       </c>
       <c r="C133" t="n">
-        <v>57.32664896700162</v>
+        <v>69</v>
       </c>
       <c r="D133" t="n">
-        <v>18.46610615117417</v>
+        <v>4</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2977,17 +2977,17 @@
         <v>45059</v>
       </c>
       <c r="B134" t="n">
-        <v>14.06422192667351</v>
+        <v>39</v>
       </c>
       <c r="C134" t="n">
-        <v>54.10281212277592</v>
+        <v>38</v>
       </c>
       <c r="D134" t="n">
-        <v>5.656737043521658</v>
+        <v>4</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -2996,17 +2996,17 @@
         <v>45060</v>
       </c>
       <c r="B135" t="n">
-        <v>18.94846977868092</v>
+        <v>13</v>
       </c>
       <c r="C135" t="n">
-        <v>44.90480790497826</v>
+        <v>43</v>
       </c>
       <c r="D135" t="n">
-        <v>6.792620883323983</v>
+        <v>9</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -3015,17 +3015,17 @@
         <v>45061</v>
       </c>
       <c r="B136" t="n">
-        <v>27.09894732103795</v>
+        <v>12</v>
       </c>
       <c r="C136" t="n">
-        <v>60.3519830295185</v>
+        <v>86</v>
       </c>
       <c r="D136" t="n">
-        <v>12.00425736262588</v>
+        <v>10</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -3034,17 +3034,17 @@
         <v>45062</v>
       </c>
       <c r="B137" t="n">
-        <v>27.7261828374452</v>
+        <v>20</v>
       </c>
       <c r="C137" t="n">
-        <v>48.62284955878869</v>
+        <v>37</v>
       </c>
       <c r="D137" t="n">
-        <v>19.2639459052076</v>
+        <v>12</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -3053,17 +3053,17 @@
         <v>45063</v>
       </c>
       <c r="B138" t="n">
-        <v>27.22975746548736</v>
+        <v>23</v>
       </c>
       <c r="C138" t="n">
-        <v>52.38209183284485</v>
+        <v>46</v>
       </c>
       <c r="D138" t="n">
-        <v>2.956026681307808</v>
+        <v>8</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -3072,17 +3072,17 @@
         <v>45064</v>
       </c>
       <c r="B139" t="n">
-        <v>29.59602459571401</v>
+        <v>26</v>
       </c>
       <c r="C139" t="n">
-        <v>61.49822653525585</v>
+        <v>86</v>
       </c>
       <c r="D139" t="n">
-        <v>5.138332873733383</v>
+        <v>1</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -3091,13 +3091,13 @@
         <v>45065</v>
       </c>
       <c r="B140" t="n">
-        <v>29.56309810005067</v>
+        <v>17</v>
       </c>
       <c r="C140" t="n">
-        <v>75.03570137573925</v>
+        <v>52</v>
       </c>
       <c r="D140" t="n">
-        <v>17.47113654581543</v>
+        <v>5</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -3110,17 +3110,17 @@
         <v>45066</v>
       </c>
       <c r="B141" t="n">
-        <v>22.94255306301922</v>
+        <v>31</v>
       </c>
       <c r="C141" t="n">
-        <v>50.01044794747652</v>
+        <v>86</v>
       </c>
       <c r="D141" t="n">
-        <v>9.83784463416689</v>
+        <v>7</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -3129,17 +3129,17 @@
         <v>45067</v>
       </c>
       <c r="B142" t="n">
-        <v>36.89639787553189</v>
+        <v>19</v>
       </c>
       <c r="C142" t="n">
-        <v>85.44952599724581</v>
+        <v>45</v>
       </c>
       <c r="D142" t="n">
-        <v>17.97922184454063</v>
+        <v>0</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -3148,17 +3148,17 @@
         <v>45068</v>
       </c>
       <c r="B143" t="n">
-        <v>21.0268561014369</v>
+        <v>10</v>
       </c>
       <c r="C143" t="n">
-        <v>81.73911281015414</v>
+        <v>55</v>
       </c>
       <c r="D143" t="n">
-        <v>3.710357950463525</v>
+        <v>1</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -3167,17 +3167,17 @@
         <v>45069</v>
       </c>
       <c r="B144" t="n">
-        <v>23.07594775796881</v>
+        <v>20</v>
       </c>
       <c r="C144" t="n">
-        <v>32.92141775853171</v>
+        <v>38</v>
       </c>
       <c r="D144" t="n">
-        <v>10.65337174942721</v>
+        <v>3</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -3186,13 +3186,13 @@
         <v>45070</v>
       </c>
       <c r="B145" t="n">
-        <v>36.75770065047016</v>
+        <v>28</v>
       </c>
       <c r="C145" t="n">
-        <v>45.21855145540937</v>
+        <v>65</v>
       </c>
       <c r="D145" t="n">
-        <v>6.525392652987447</v>
+        <v>18</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -3205,17 +3205,17 @@
         <v>45071</v>
       </c>
       <c r="B146" t="n">
-        <v>34.18581967138257</v>
+        <v>21</v>
       </c>
       <c r="C146" t="n">
-        <v>56.76813075955211</v>
+        <v>36</v>
       </c>
       <c r="D146" t="n">
-        <v>6.330851197849521</v>
+        <v>18</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -3224,17 +3224,17 @@
         <v>45072</v>
       </c>
       <c r="B147" t="n">
-        <v>31.11665750621099</v>
+        <v>36</v>
       </c>
       <c r="C147" t="n">
-        <v>36.27767332454845</v>
+        <v>47</v>
       </c>
       <c r="D147" t="n">
-        <v>8.937539278923982</v>
+        <v>8</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -3243,13 +3243,13 @@
         <v>45073</v>
       </c>
       <c r="B148" t="n">
-        <v>13.00680661936903</v>
+        <v>33</v>
       </c>
       <c r="C148" t="n">
-        <v>50.90855934200982</v>
+        <v>37</v>
       </c>
       <c r="D148" t="n">
-        <v>8.661548982025369</v>
+        <v>18</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -3262,13 +3262,13 @@
         <v>45074</v>
       </c>
       <c r="B149" t="n">
-        <v>37.5844784123402</v>
+        <v>37</v>
       </c>
       <c r="C149" t="n">
-        <v>74.40585153706095</v>
+        <v>50</v>
       </c>
       <c r="D149" t="n">
-        <v>7.146937593559088</v>
+        <v>7</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -3281,13 +3281,13 @@
         <v>45075</v>
       </c>
       <c r="B150" t="n">
-        <v>31.42723898647334</v>
+        <v>12</v>
       </c>
       <c r="C150" t="n">
-        <v>70.83086886856955</v>
+        <v>55</v>
       </c>
       <c r="D150" t="n">
-        <v>18.29941540631237</v>
+        <v>10</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
@@ -3300,17 +3300,17 @@
         <v>45076</v>
       </c>
       <c r="B151" t="n">
-        <v>39.96541019703599</v>
+        <v>35</v>
       </c>
       <c r="C151" t="n">
-        <v>67.3430657139603</v>
+        <v>32</v>
       </c>
       <c r="D151" t="n">
-        <v>14.63488370865786</v>
+        <v>18</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -3319,17 +3319,17 @@
         <v>45077</v>
       </c>
       <c r="B152" t="n">
-        <v>14.48344913973981</v>
+        <v>12</v>
       </c>
       <c r="C152" t="n">
-        <v>72.63170416334074</v>
+        <v>46</v>
       </c>
       <c r="D152" t="n">
-        <v>14.55093982663059</v>
+        <v>3</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -3338,17 +3338,17 @@
         <v>45078</v>
       </c>
       <c r="B153" t="n">
-        <v>36.04378172104643</v>
+        <v>13</v>
       </c>
       <c r="C153" t="n">
-        <v>42.2954212175821</v>
+        <v>86</v>
       </c>
       <c r="D153" t="n">
-        <v>5.798268991839109</v>
+        <v>12</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -3357,13 +3357,13 @@
         <v>45079</v>
       </c>
       <c r="B154" t="n">
-        <v>14.87478804029124</v>
+        <v>37</v>
       </c>
       <c r="C154" t="n">
-        <v>50.50188689188393</v>
+        <v>80</v>
       </c>
       <c r="D154" t="n">
-        <v>11.55418848633681</v>
+        <v>19</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -3376,17 +3376,17 @@
         <v>45080</v>
       </c>
       <c r="B155" t="n">
-        <v>28.46678692851533</v>
+        <v>13</v>
       </c>
       <c r="C155" t="n">
-        <v>70.57454893664777</v>
+        <v>75</v>
       </c>
       <c r="D155" t="n">
-        <v>15.58358866603668</v>
+        <v>13</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -3395,13 +3395,13 @@
         <v>45081</v>
       </c>
       <c r="B156" t="n">
-        <v>13.71459948548324</v>
+        <v>28</v>
       </c>
       <c r="C156" t="n">
-        <v>82.75408578187962</v>
+        <v>53</v>
       </c>
       <c r="D156" t="n">
-        <v>15.91180737086426</v>
+        <v>0</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -3414,17 +3414,17 @@
         <v>45082</v>
       </c>
       <c r="B157" t="n">
-        <v>35.44024687966703</v>
+        <v>24</v>
       </c>
       <c r="C157" t="n">
-        <v>62.62068322968571</v>
+        <v>54</v>
       </c>
       <c r="D157" t="n">
-        <v>6.890609215086245</v>
+        <v>10</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -3433,13 +3433,13 @@
         <v>45083</v>
       </c>
       <c r="B158" t="n">
-        <v>34.21956876175032</v>
+        <v>13</v>
       </c>
       <c r="C158" t="n">
-        <v>46.9619790567322</v>
+        <v>34</v>
       </c>
       <c r="D158" t="n">
-        <v>15.41745513137296</v>
+        <v>3</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -3452,17 +3452,17 @@
         <v>45084</v>
       </c>
       <c r="B159" t="n">
-        <v>27.0730221584378</v>
+        <v>30</v>
       </c>
       <c r="C159" t="n">
-        <v>31.81411548035896</v>
+        <v>66</v>
       </c>
       <c r="D159" t="n">
-        <v>14.71787793615466</v>
+        <v>6</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -3471,17 +3471,17 @@
         <v>45085</v>
       </c>
       <c r="B160" t="n">
-        <v>22.21549891677999</v>
+        <v>27</v>
       </c>
       <c r="C160" t="n">
-        <v>72.6202097384528</v>
+        <v>74</v>
       </c>
       <c r="D160" t="n">
-        <v>2.830129712438005</v>
+        <v>3</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -3490,17 +3490,17 @@
         <v>45086</v>
       </c>
       <c r="B161" t="n">
-        <v>12.07500986365414</v>
+        <v>28</v>
       </c>
       <c r="C161" t="n">
-        <v>30.47304621050642</v>
+        <v>79</v>
       </c>
       <c r="D161" t="n">
-        <v>17.31890937132955</v>
+        <v>6</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -3509,13 +3509,13 @@
         <v>45087</v>
       </c>
       <c r="B162" t="n">
-        <v>30.92286319433691</v>
+        <v>37</v>
       </c>
       <c r="C162" t="n">
-        <v>52.36074418925973</v>
+        <v>53</v>
       </c>
       <c r="D162" t="n">
-        <v>8.826429403608216</v>
+        <v>19</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -3528,17 +3528,17 @@
         <v>45088</v>
       </c>
       <c r="B163" t="n">
-        <v>23.60628048034206</v>
+        <v>24</v>
       </c>
       <c r="C163" t="n">
-        <v>61.83223287376691</v>
+        <v>60</v>
       </c>
       <c r="D163" t="n">
-        <v>9.72820897777331</v>
+        <v>2</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -3547,17 +3547,17 @@
         <v>45089</v>
       </c>
       <c r="B164" t="n">
-        <v>31.66166798411044</v>
+        <v>19</v>
       </c>
       <c r="C164" t="n">
-        <v>85.32668770603158</v>
+        <v>84</v>
       </c>
       <c r="D164" t="n">
-        <v>8.967383577959946</v>
+        <v>18</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -3566,17 +3566,17 @@
         <v>45090</v>
       </c>
       <c r="B165" t="n">
-        <v>35.99146977785887</v>
+        <v>36</v>
       </c>
       <c r="C165" t="n">
-        <v>35.369672701974</v>
+        <v>55</v>
       </c>
       <c r="D165" t="n">
-        <v>11.35692002955015</v>
+        <v>18</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -3585,17 +3585,17 @@
         <v>45091</v>
       </c>
       <c r="B166" t="n">
-        <v>39.26564515008657</v>
+        <v>11</v>
       </c>
       <c r="C166" t="n">
-        <v>54.35653931809702</v>
+        <v>50</v>
       </c>
       <c r="D166" t="n">
-        <v>12.42338494734109</v>
+        <v>6</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -3604,13 +3604,13 @@
         <v>45092</v>
       </c>
       <c r="B167" t="n">
-        <v>35.67410027177833</v>
+        <v>14</v>
       </c>
       <c r="C167" t="n">
-        <v>31.45879198260947</v>
+        <v>63</v>
       </c>
       <c r="D167" t="n">
-        <v>9.963591315258869</v>
+        <v>11</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -3623,13 +3623,13 @@
         <v>45093</v>
       </c>
       <c r="B168" t="n">
-        <v>10.35142252555006</v>
+        <v>20</v>
       </c>
       <c r="C168" t="n">
-        <v>50.55665906049542</v>
+        <v>67</v>
       </c>
       <c r="D168" t="n">
-        <v>17.33577086518191</v>
+        <v>0</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -3642,17 +3642,17 @@
         <v>45094</v>
       </c>
       <c r="B169" t="n">
-        <v>20.79934193435092</v>
+        <v>32</v>
       </c>
       <c r="C169" t="n">
-        <v>67.3338635303877</v>
+        <v>87</v>
       </c>
       <c r="D169" t="n">
-        <v>12.55469512390569</v>
+        <v>4</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -3661,17 +3661,17 @@
         <v>45095</v>
       </c>
       <c r="B170" t="n">
-        <v>31.89971687272174</v>
+        <v>21</v>
       </c>
       <c r="C170" t="n">
-        <v>46.7440768937159</v>
+        <v>53</v>
       </c>
       <c r="D170" t="n">
-        <v>8.028558986110399</v>
+        <v>13</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -3680,17 +3680,17 @@
         <v>45096</v>
       </c>
       <c r="B171" t="n">
-        <v>15.14889031784321</v>
+        <v>18</v>
       </c>
       <c r="C171" t="n">
-        <v>42.58499697933811</v>
+        <v>57</v>
       </c>
       <c r="D171" t="n">
-        <v>8.333835138174219</v>
+        <v>9</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -3699,17 +3699,17 @@
         <v>45097</v>
       </c>
       <c r="B172" t="n">
-        <v>25.63109818612388</v>
+        <v>21</v>
       </c>
       <c r="C172" t="n">
-        <v>36.94219399962562</v>
+        <v>59</v>
       </c>
       <c r="D172" t="n">
-        <v>16.21677230257903</v>
+        <v>2</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -3718,17 +3718,17 @@
         <v>45098</v>
       </c>
       <c r="B173" t="n">
-        <v>11.63013965017761</v>
+        <v>12</v>
       </c>
       <c r="C173" t="n">
-        <v>64.6284146412205</v>
+        <v>63</v>
       </c>
       <c r="D173" t="n">
-        <v>6.963838854930402</v>
+        <v>1</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -3737,17 +3737,17 @@
         <v>45099</v>
       </c>
       <c r="B174" t="n">
-        <v>15.999895746892</v>
+        <v>29</v>
       </c>
       <c r="C174" t="n">
-        <v>71.71620035428117</v>
+        <v>81</v>
       </c>
       <c r="D174" t="n">
-        <v>4.229095915648271</v>
+        <v>12</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -3756,17 +3756,17 @@
         <v>45100</v>
       </c>
       <c r="B175" t="n">
-        <v>10.55565383381842</v>
+        <v>26</v>
       </c>
       <c r="C175" t="n">
-        <v>70.31742843574935</v>
+        <v>83</v>
       </c>
       <c r="D175" t="n">
-        <v>1.187663760115785</v>
+        <v>15</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -3775,13 +3775,13 @@
         <v>45101</v>
       </c>
       <c r="B176" t="n">
-        <v>33.81093110072262</v>
+        <v>10</v>
       </c>
       <c r="C176" t="n">
-        <v>86.93166124323045</v>
+        <v>85</v>
       </c>
       <c r="D176" t="n">
-        <v>17.52053695841148</v>
+        <v>1</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
@@ -3794,13 +3794,13 @@
         <v>45102</v>
       </c>
       <c r="B177" t="n">
-        <v>16.7177406418114</v>
+        <v>32</v>
       </c>
       <c r="C177" t="n">
-        <v>30.16219283361016</v>
+        <v>81</v>
       </c>
       <c r="D177" t="n">
-        <v>18.370929023807</v>
+        <v>12</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
@@ -3813,17 +3813,17 @@
         <v>45103</v>
       </c>
       <c r="B178" t="n">
-        <v>20.36055042090708</v>
+        <v>10</v>
       </c>
       <c r="C178" t="n">
-        <v>68.83179923364216</v>
+        <v>52</v>
       </c>
       <c r="D178" t="n">
-        <v>2.402403643269519</v>
+        <v>5</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -3832,17 +3832,17 @@
         <v>45104</v>
       </c>
       <c r="B179" t="n">
-        <v>37.84243880396772</v>
+        <v>16</v>
       </c>
       <c r="C179" t="n">
-        <v>66.02353422585837</v>
+        <v>84</v>
       </c>
       <c r="D179" t="n">
-        <v>6.689474829922297</v>
+        <v>6</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -3851,17 +3851,17 @@
         <v>45105</v>
       </c>
       <c r="B180" t="n">
-        <v>31.13243205770598</v>
+        <v>29</v>
       </c>
       <c r="C180" t="n">
-        <v>65.3243765982173</v>
+        <v>37</v>
       </c>
       <c r="D180" t="n">
-        <v>3.507441390304877</v>
+        <v>1</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -3870,17 +3870,17 @@
         <v>45106</v>
       </c>
       <c r="B181" t="n">
-        <v>10.95516788593924</v>
+        <v>24</v>
       </c>
       <c r="C181" t="n">
-        <v>87.76621919041455</v>
+        <v>71</v>
       </c>
       <c r="D181" t="n">
-        <v>2.317969376517595</v>
+        <v>10</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -3889,13 +3889,13 @@
         <v>45107</v>
       </c>
       <c r="B182" t="n">
-        <v>14.94082469493738</v>
+        <v>20</v>
       </c>
       <c r="C182" t="n">
-        <v>31.01230040220238</v>
+        <v>79</v>
       </c>
       <c r="D182" t="n">
-        <v>17.99733486000061</v>
+        <v>6</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
@@ -3908,13 +3908,13 @@
         <v>45108</v>
       </c>
       <c r="B183" t="n">
-        <v>28.64435204499291</v>
+        <v>29</v>
       </c>
       <c r="C183" t="n">
-        <v>71.788945842087</v>
+        <v>39</v>
       </c>
       <c r="D183" t="n">
-        <v>1.137545182907109</v>
+        <v>6</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
@@ -3927,17 +3927,17 @@
         <v>45109</v>
       </c>
       <c r="B184" t="n">
-        <v>27.31685765812503</v>
+        <v>34</v>
       </c>
       <c r="C184" t="n">
-        <v>78.8207189821118</v>
+        <v>84</v>
       </c>
       <c r="D184" t="n">
-        <v>19.60971326938014</v>
+        <v>6</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -3946,17 +3946,17 @@
         <v>45110</v>
       </c>
       <c r="B185" t="n">
-        <v>17.13678464123526</v>
+        <v>38</v>
       </c>
       <c r="C185" t="n">
-        <v>60.58843179729504</v>
+        <v>30</v>
       </c>
       <c r="D185" t="n">
-        <v>1.929017213947684</v>
+        <v>6</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -3965,17 +3965,17 @@
         <v>45111</v>
       </c>
       <c r="B186" t="n">
-        <v>38.02641993774381</v>
+        <v>18</v>
       </c>
       <c r="C186" t="n">
-        <v>50.03789217580855</v>
+        <v>49</v>
       </c>
       <c r="D186" t="n">
-        <v>17.26941298387171</v>
+        <v>11</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -3984,17 +3984,17 @@
         <v>45112</v>
       </c>
       <c r="B187" t="n">
-        <v>28.41897867897688</v>
+        <v>23</v>
       </c>
       <c r="C187" t="n">
-        <v>77.4504097936443</v>
+        <v>86</v>
       </c>
       <c r="D187" t="n">
-        <v>11.33012213978325</v>
+        <v>18</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -4003,13 +4003,13 @@
         <v>45113</v>
       </c>
       <c r="B188" t="n">
-        <v>26.06898409074875</v>
+        <v>34</v>
       </c>
       <c r="C188" t="n">
-        <v>35.83457553794548</v>
+        <v>66</v>
       </c>
       <c r="D188" t="n">
-        <v>7.358349756357468</v>
+        <v>18</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
@@ -4022,13 +4022,13 @@
         <v>45114</v>
       </c>
       <c r="B189" t="n">
-        <v>27.69729929063713</v>
+        <v>39</v>
       </c>
       <c r="C189" t="n">
-        <v>56.52213826379551</v>
+        <v>47</v>
       </c>
       <c r="D189" t="n">
-        <v>6.846847532503157</v>
+        <v>18</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
@@ -4041,17 +4041,17 @@
         <v>45115</v>
       </c>
       <c r="B190" t="n">
-        <v>31.90366088550309</v>
+        <v>12</v>
       </c>
       <c r="C190" t="n">
-        <v>61.19714247425029</v>
+        <v>50</v>
       </c>
       <c r="D190" t="n">
-        <v>15.14728286475417</v>
+        <v>19</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -4060,17 +4060,17 @@
         <v>45116</v>
       </c>
       <c r="B191" t="n">
-        <v>19.35834986438806</v>
+        <v>13</v>
       </c>
       <c r="C191" t="n">
-        <v>71.63738465607285</v>
+        <v>83</v>
       </c>
       <c r="D191" t="n">
-        <v>6.291465900085744</v>
+        <v>2</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -4079,13 +4079,13 @@
         <v>45117</v>
       </c>
       <c r="B192" t="n">
-        <v>21.94663186648275</v>
+        <v>12</v>
       </c>
       <c r="C192" t="n">
-        <v>35.45314392194457</v>
+        <v>78</v>
       </c>
       <c r="D192" t="n">
-        <v>13.14637833234284</v>
+        <v>12</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
@@ -4098,17 +4098,17 @@
         <v>45118</v>
       </c>
       <c r="B193" t="n">
-        <v>16.29531246925367</v>
+        <v>21</v>
       </c>
       <c r="C193" t="n">
-        <v>43.66557009227166</v>
+        <v>33</v>
       </c>
       <c r="D193" t="n">
-        <v>10.3465216703216</v>
+        <v>9</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -4117,17 +4117,17 @@
         <v>45119</v>
       </c>
       <c r="B194" t="n">
-        <v>15.58579017641009</v>
+        <v>23</v>
       </c>
       <c r="C194" t="n">
-        <v>54.61809376140754</v>
+        <v>72</v>
       </c>
       <c r="D194" t="n">
-        <v>9.69931290316141</v>
+        <v>19</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -4136,17 +4136,17 @@
         <v>45120</v>
       </c>
       <c r="B195" t="n">
-        <v>38.33117169951801</v>
+        <v>26</v>
       </c>
       <c r="C195" t="n">
-        <v>67.39768038120783</v>
+        <v>31</v>
       </c>
       <c r="D195" t="n">
-        <v>18.02324341298323</v>
+        <v>8</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -4155,17 +4155,17 @@
         <v>45121</v>
       </c>
       <c r="B196" t="n">
-        <v>32.18652385147863</v>
+        <v>18</v>
       </c>
       <c r="C196" t="n">
-        <v>83.21764687304506</v>
+        <v>50</v>
       </c>
       <c r="D196" t="n">
-        <v>11.09290117240519</v>
+        <v>5</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -4174,13 +4174,13 @@
         <v>45122</v>
       </c>
       <c r="B197" t="n">
-        <v>24.71376425852701</v>
+        <v>18</v>
       </c>
       <c r="C197" t="n">
-        <v>67.12957009448259</v>
+        <v>66</v>
       </c>
       <c r="D197" t="n">
-        <v>16.5372320609739</v>
+        <v>11</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
@@ -4193,13 +4193,13 @@
         <v>45123</v>
       </c>
       <c r="B198" t="n">
-        <v>16.8224388391997</v>
+        <v>29</v>
       </c>
       <c r="C198" t="n">
-        <v>38.00768825609607</v>
+        <v>34</v>
       </c>
       <c r="D198" t="n">
-        <v>14.51147068202979</v>
+        <v>1</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
@@ -4212,13 +4212,13 @@
         <v>45124</v>
       </c>
       <c r="B199" t="n">
-        <v>17.63069445311179</v>
+        <v>18</v>
       </c>
       <c r="C199" t="n">
-        <v>88.83480796723694</v>
+        <v>46</v>
       </c>
       <c r="D199" t="n">
-        <v>0.771144921179967</v>
+        <v>11</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
@@ -4231,17 +4231,17 @@
         <v>45125</v>
       </c>
       <c r="B200" t="n">
-        <v>11.74087480971627</v>
+        <v>36</v>
       </c>
       <c r="C200" t="n">
-        <v>82.30714408532958</v>
+        <v>78</v>
       </c>
       <c r="D200" t="n">
-        <v>15.46220105010838</v>
+        <v>15</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -4250,13 +4250,13 @@
         <v>45126</v>
       </c>
       <c r="B201" t="n">
-        <v>23.03249876674362</v>
+        <v>12</v>
       </c>
       <c r="C201" t="n">
-        <v>60.16324566871944</v>
+        <v>77</v>
       </c>
       <c r="D201" t="n">
-        <v>4.337405001820813</v>
+        <v>12</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
@@ -4269,13 +4269,13 @@
         <v>45127</v>
       </c>
       <c r="B202" t="n">
-        <v>19.35387645982308</v>
+        <v>34</v>
       </c>
       <c r="C202" t="n">
-        <v>85.34087890779799</v>
+        <v>40</v>
       </c>
       <c r="D202" t="n">
-        <v>18.06299293703143</v>
+        <v>15</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
@@ -4288,13 +4288,13 @@
         <v>45128</v>
       </c>
       <c r="B203" t="n">
-        <v>30.89030466446378</v>
+        <v>30</v>
       </c>
       <c r="C203" t="n">
-        <v>62.48284762542815</v>
+        <v>75</v>
       </c>
       <c r="D203" t="n">
-        <v>0.8584838121766403</v>
+        <v>12</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
@@ -4307,17 +4307,17 @@
         <v>45129</v>
       </c>
       <c r="B204" t="n">
-        <v>21.33255517877443</v>
+        <v>13</v>
       </c>
       <c r="C204" t="n">
-        <v>85.3983640733498</v>
+        <v>70</v>
       </c>
       <c r="D204" t="n">
-        <v>6.661440689486375</v>
+        <v>18</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -4326,13 +4326,13 @@
         <v>45130</v>
       </c>
       <c r="B205" t="n">
-        <v>15.38811032678904</v>
+        <v>22</v>
       </c>
       <c r="C205" t="n">
-        <v>79.79384211620059</v>
+        <v>60</v>
       </c>
       <c r="D205" t="n">
-        <v>1.99465894469508</v>
+        <v>13</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
@@ -4345,17 +4345,17 @@
         <v>45131</v>
       </c>
       <c r="B206" t="n">
-        <v>10.74036185173994</v>
+        <v>39</v>
       </c>
       <c r="C206" t="n">
-        <v>88.09718461765783</v>
+        <v>57</v>
       </c>
       <c r="D206" t="n">
-        <v>9.511782341696875</v>
+        <v>12</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -4364,17 +4364,17 @@
         <v>45132</v>
       </c>
       <c r="B207" t="n">
-        <v>12.01748894389746</v>
+        <v>24</v>
       </c>
       <c r="C207" t="n">
-        <v>85.18696864668951</v>
+        <v>73</v>
       </c>
       <c r="D207" t="n">
-        <v>16.40044871739504</v>
+        <v>9</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -4383,17 +4383,17 @@
         <v>45133</v>
       </c>
       <c r="B208" t="n">
-        <v>30.38178320495702</v>
+        <v>10</v>
       </c>
       <c r="C208" t="n">
-        <v>32.16202904571417</v>
+        <v>61</v>
       </c>
       <c r="D208" t="n">
-        <v>5.963747193261282</v>
+        <v>6</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -4402,17 +4402,17 @@
         <v>45134</v>
       </c>
       <c r="B209" t="n">
-        <v>23.61090533668136</v>
+        <v>14</v>
       </c>
       <c r="C209" t="n">
-        <v>40.4863202496564</v>
+        <v>50</v>
       </c>
       <c r="D209" t="n">
-        <v>3.018697946220832</v>
+        <v>4</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -4421,17 +4421,17 @@
         <v>45135</v>
       </c>
       <c r="B210" t="n">
-        <v>26.09737633326166</v>
+        <v>13</v>
       </c>
       <c r="C210" t="n">
-        <v>53.34808062607114</v>
+        <v>36</v>
       </c>
       <c r="D210" t="n">
-        <v>6.605340713937984</v>
+        <v>16</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -4440,13 +4440,13 @@
         <v>45136</v>
       </c>
       <c r="B211" t="n">
-        <v>36.90013879121027</v>
+        <v>23</v>
       </c>
       <c r="C211" t="n">
-        <v>87.12856183772524</v>
+        <v>39</v>
       </c>
       <c r="D211" t="n">
-        <v>16.27760283841272</v>
+        <v>8</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -4459,13 +4459,13 @@
         <v>45137</v>
       </c>
       <c r="B212" t="n">
-        <v>39.71016842190113</v>
+        <v>21</v>
       </c>
       <c r="C212" t="n">
-        <v>48.00173516855578</v>
+        <v>57</v>
       </c>
       <c r="D212" t="n">
-        <v>2.807679155986937</v>
+        <v>5</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -4478,17 +4478,17 @@
         <v>45138</v>
       </c>
       <c r="B213" t="n">
-        <v>16.50690953195422</v>
+        <v>38</v>
       </c>
       <c r="C213" t="n">
-        <v>39.62805863325606</v>
+        <v>77</v>
       </c>
       <c r="D213" t="n">
-        <v>4.547248981550036</v>
+        <v>15</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -4497,17 +4497,17 @@
         <v>45139</v>
       </c>
       <c r="B214" t="n">
-        <v>29.89234609300302</v>
+        <v>32</v>
       </c>
       <c r="C214" t="n">
-        <v>83.1782799651936</v>
+        <v>65</v>
       </c>
       <c r="D214" t="n">
-        <v>1.377039289867479</v>
+        <v>5</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -4516,17 +4516,17 @@
         <v>45140</v>
       </c>
       <c r="B215" t="n">
-        <v>17.89967130211452</v>
+        <v>23</v>
       </c>
       <c r="C215" t="n">
-        <v>56.78366492899217</v>
+        <v>49</v>
       </c>
       <c r="D215" t="n">
-        <v>14.11420087979215</v>
+        <v>5</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -4535,17 +4535,17 @@
         <v>45141</v>
       </c>
       <c r="B216" t="n">
-        <v>10.61952998397186</v>
+        <v>35</v>
       </c>
       <c r="C216" t="n">
-        <v>84.47253566125957</v>
+        <v>42</v>
       </c>
       <c r="D216" t="n">
-        <v>7.904664870726736</v>
+        <v>17</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -4554,13 +4554,13 @@
         <v>45142</v>
       </c>
       <c r="B217" t="n">
-        <v>32.75135961508424</v>
+        <v>23</v>
       </c>
       <c r="C217" t="n">
-        <v>39.61382797920859</v>
+        <v>48</v>
       </c>
       <c r="D217" t="n">
-        <v>6.216799542866321</v>
+        <v>0</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
@@ -4573,17 +4573,17 @@
         <v>45143</v>
       </c>
       <c r="B218" t="n">
-        <v>19.60051452467404</v>
+        <v>21</v>
       </c>
       <c r="C218" t="n">
-        <v>69.66705069048598</v>
+        <v>79</v>
       </c>
       <c r="D218" t="n">
-        <v>14.37252780682304</v>
+        <v>16</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -4592,17 +4592,17 @@
         <v>45144</v>
       </c>
       <c r="B219" t="n">
-        <v>21.50391682515694</v>
+        <v>34</v>
       </c>
       <c r="C219" t="n">
-        <v>56.41582516976951</v>
+        <v>40</v>
       </c>
       <c r="D219" t="n">
-        <v>6.719550846805104</v>
+        <v>16</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -4611,17 +4611,17 @@
         <v>45145</v>
       </c>
       <c r="B220" t="n">
-        <v>27.64951340660817</v>
+        <v>26</v>
       </c>
       <c r="C220" t="n">
-        <v>34.58920614181712</v>
+        <v>64</v>
       </c>
       <c r="D220" t="n">
-        <v>14.55542546428836</v>
+        <v>0</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -4630,17 +4630,17 @@
         <v>45146</v>
       </c>
       <c r="B221" t="n">
-        <v>34.93145365708571</v>
+        <v>34</v>
       </c>
       <c r="C221" t="n">
-        <v>71.78778867915003</v>
+        <v>63</v>
       </c>
       <c r="D221" t="n">
-        <v>16.30398790628627</v>
+        <v>10</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -4649,17 +4649,17 @@
         <v>45147</v>
       </c>
       <c r="B222" t="n">
-        <v>28.86945530773446</v>
+        <v>39</v>
       </c>
       <c r="C222" t="n">
-        <v>44.84392533234922</v>
+        <v>73</v>
       </c>
       <c r="D222" t="n">
-        <v>4.35325686915477</v>
+        <v>12</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -4668,17 +4668,17 @@
         <v>45148</v>
       </c>
       <c r="B223" t="n">
-        <v>36.17951966342186</v>
+        <v>31</v>
       </c>
       <c r="C223" t="n">
-        <v>32.37693135477107</v>
+        <v>33</v>
       </c>
       <c r="D223" t="n">
-        <v>19.47637393691967</v>
+        <v>0</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -4687,17 +4687,17 @@
         <v>45149</v>
       </c>
       <c r="B224" t="n">
-        <v>18.20626104446907</v>
+        <v>24</v>
       </c>
       <c r="C224" t="n">
-        <v>33.5966578949744</v>
+        <v>42</v>
       </c>
       <c r="D224" t="n">
-        <v>3.247158958253336</v>
+        <v>7</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -4706,13 +4706,13 @@
         <v>45150</v>
       </c>
       <c r="B225" t="n">
-        <v>33.94140501737691</v>
+        <v>35</v>
       </c>
       <c r="C225" t="n">
-        <v>33.66471222400724</v>
+        <v>66</v>
       </c>
       <c r="D225" t="n">
-        <v>5.816818133134851</v>
+        <v>19</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
@@ -4725,17 +4725,17 @@
         <v>45151</v>
       </c>
       <c r="B226" t="n">
-        <v>15.56907832917857</v>
+        <v>26</v>
       </c>
       <c r="C226" t="n">
-        <v>84.46397744910237</v>
+        <v>88</v>
       </c>
       <c r="D226" t="n">
-        <v>3.595905816670832</v>
+        <v>5</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -4744,13 +4744,13 @@
         <v>45152</v>
       </c>
       <c r="B227" t="n">
-        <v>38.58374970915834</v>
+        <v>38</v>
       </c>
       <c r="C227" t="n">
-        <v>74.39303506974606</v>
+        <v>31</v>
       </c>
       <c r="D227" t="n">
-        <v>6.910113127126689</v>
+        <v>4</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
@@ -4763,13 +4763,13 @@
         <v>45153</v>
       </c>
       <c r="B228" t="n">
-        <v>30.62464829163446</v>
+        <v>35</v>
       </c>
       <c r="C228" t="n">
-        <v>83.88374143282411</v>
+        <v>79</v>
       </c>
       <c r="D228" t="n">
-        <v>9.601217756415112</v>
+        <v>19</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
@@ -4782,17 +4782,17 @@
         <v>45154</v>
       </c>
       <c r="B229" t="n">
-        <v>16.46523031340675</v>
+        <v>32</v>
       </c>
       <c r="C229" t="n">
-        <v>70.35493867779128</v>
+        <v>30</v>
       </c>
       <c r="D229" t="n">
-        <v>10.44351738004238</v>
+        <v>4</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -4801,17 +4801,17 @@
         <v>45155</v>
       </c>
       <c r="B230" t="n">
-        <v>38.42111771466773</v>
+        <v>31</v>
       </c>
       <c r="C230" t="n">
-        <v>61.73639574185299</v>
+        <v>69</v>
       </c>
       <c r="D230" t="n">
-        <v>17.07212084592544</v>
+        <v>5</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -4820,17 +4820,17 @@
         <v>45156</v>
       </c>
       <c r="B231" t="n">
-        <v>31.92567420310473</v>
+        <v>39</v>
       </c>
       <c r="C231" t="n">
-        <v>48.2667818608427</v>
+        <v>54</v>
       </c>
       <c r="D231" t="n">
-        <v>17.78895817631733</v>
+        <v>12</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -4839,17 +4839,17 @@
         <v>45157</v>
       </c>
       <c r="B232" t="n">
-        <v>17.61824927785078</v>
+        <v>29</v>
       </c>
       <c r="C232" t="n">
-        <v>89.87773507972041</v>
+        <v>88</v>
       </c>
       <c r="D232" t="n">
-        <v>4.402077215618128</v>
+        <v>17</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -4858,13 +4858,13 @@
         <v>45158</v>
       </c>
       <c r="B233" t="n">
-        <v>16.39935932102446</v>
+        <v>11</v>
       </c>
       <c r="C233" t="n">
-        <v>51.73134353636336</v>
+        <v>66</v>
       </c>
       <c r="D233" t="n">
-        <v>12.45788064371505</v>
+        <v>19</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
@@ -4877,13 +4877,13 @@
         <v>45159</v>
       </c>
       <c r="B234" t="n">
-        <v>25.5460214179199</v>
+        <v>18</v>
       </c>
       <c r="C234" t="n">
-        <v>58.23893695283457</v>
+        <v>65</v>
       </c>
       <c r="D234" t="n">
-        <v>2.229921145974312</v>
+        <v>12</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
@@ -4896,17 +4896,17 @@
         <v>45160</v>
       </c>
       <c r="B235" t="n">
-        <v>10.76988154163595</v>
+        <v>10</v>
       </c>
       <c r="C235" t="n">
-        <v>52.6947104954077</v>
+        <v>35</v>
       </c>
       <c r="D235" t="n">
-        <v>9.179397203641367</v>
+        <v>6</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -4915,17 +4915,17 @@
         <v>45161</v>
       </c>
       <c r="B236" t="n">
-        <v>16.22410226323328</v>
+        <v>14</v>
       </c>
       <c r="C236" t="n">
-        <v>88.77161576012752</v>
+        <v>36</v>
       </c>
       <c r="D236" t="n">
-        <v>6.446670760932363</v>
+        <v>7</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -4934,17 +4934,17 @@
         <v>45162</v>
       </c>
       <c r="B237" t="n">
-        <v>22.74056406254519</v>
+        <v>37</v>
       </c>
       <c r="C237" t="n">
-        <v>40.47950312370035</v>
+        <v>33</v>
       </c>
       <c r="D237" t="n">
-        <v>6.330014909072128</v>
+        <v>16</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -4953,17 +4953,17 @@
         <v>45163</v>
       </c>
       <c r="B238" t="n">
-        <v>21.22509941002676</v>
+        <v>37</v>
       </c>
       <c r="C238" t="n">
-        <v>49.67928005448478</v>
+        <v>64</v>
       </c>
       <c r="D238" t="n">
-        <v>9.651684834242021</v>
+        <v>0</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -4972,13 +4972,13 @@
         <v>45164</v>
       </c>
       <c r="B239" t="n">
-        <v>23.90726273094432</v>
+        <v>35</v>
       </c>
       <c r="C239" t="n">
-        <v>70.82091996090008</v>
+        <v>87</v>
       </c>
       <c r="D239" t="n">
-        <v>14.59655271058535</v>
+        <v>15</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
@@ -4991,17 +4991,17 @@
         <v>45165</v>
       </c>
       <c r="B240" t="n">
-        <v>18.32886118884196</v>
+        <v>16</v>
       </c>
       <c r="C240" t="n">
-        <v>33.79245710031784</v>
+        <v>70</v>
       </c>
       <c r="D240" t="n">
-        <v>1.38365317584779</v>
+        <v>10</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -5010,17 +5010,17 @@
         <v>45166</v>
       </c>
       <c r="B241" t="n">
-        <v>27.60353039374506</v>
+        <v>31</v>
       </c>
       <c r="C241" t="n">
-        <v>66.43496244069246</v>
+        <v>63</v>
       </c>
       <c r="D241" t="n">
-        <v>17.58346675374809</v>
+        <v>3</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -5029,17 +5029,17 @@
         <v>45167</v>
       </c>
       <c r="B242" t="n">
-        <v>35.91566817769694</v>
+        <v>23</v>
       </c>
       <c r="C242" t="n">
-        <v>58.65879017258496</v>
+        <v>58</v>
       </c>
       <c r="D242" t="n">
-        <v>14.69627549261122</v>
+        <v>3</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -5048,13 +5048,13 @@
         <v>45168</v>
       </c>
       <c r="B243" t="n">
-        <v>13.52595567886099</v>
+        <v>17</v>
       </c>
       <c r="C243" t="n">
-        <v>47.03999860572607</v>
+        <v>34</v>
       </c>
       <c r="D243" t="n">
-        <v>3.529987777781203</v>
+        <v>16</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
@@ -5067,13 +5067,13 @@
         <v>45169</v>
       </c>
       <c r="B244" t="n">
-        <v>25.52137321462342</v>
+        <v>34</v>
       </c>
       <c r="C244" t="n">
-        <v>44.30479685544348</v>
+        <v>56</v>
       </c>
       <c r="D244" t="n">
-        <v>18.78321818174741</v>
+        <v>16</v>
       </c>
       <c r="E244" t="inlineStr">
         <is>
@@ -5086,13 +5086,13 @@
         <v>45170</v>
       </c>
       <c r="B245" t="n">
-        <v>13.9620431903546</v>
+        <v>34</v>
       </c>
       <c r="C245" t="n">
-        <v>60.8707645979254</v>
+        <v>62</v>
       </c>
       <c r="D245" t="n">
-        <v>10.12624448046777</v>
+        <v>9</v>
       </c>
       <c r="E245" t="inlineStr">
         <is>
@@ -5105,13 +5105,13 @@
         <v>45171</v>
       </c>
       <c r="B246" t="n">
-        <v>31.50579043577781</v>
+        <v>25</v>
       </c>
       <c r="C246" t="n">
-        <v>52.07565483222248</v>
+        <v>86</v>
       </c>
       <c r="D246" t="n">
-        <v>19.99617156233931</v>
+        <v>5</v>
       </c>
       <c r="E246" t="inlineStr">
         <is>
@@ -5124,17 +5124,17 @@
         <v>45172</v>
       </c>
       <c r="B247" t="n">
-        <v>21.88179108421881</v>
+        <v>19</v>
       </c>
       <c r="C247" t="n">
-        <v>57.39119347575932</v>
+        <v>75</v>
       </c>
       <c r="D247" t="n">
-        <v>3.945189486014753</v>
+        <v>16</v>
       </c>
       <c r="E247" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -5143,17 +5143,17 @@
         <v>45173</v>
       </c>
       <c r="B248" t="n">
-        <v>26.96263935575527</v>
+        <v>28</v>
       </c>
       <c r="C248" t="n">
-        <v>50.2486429058544</v>
+        <v>81</v>
       </c>
       <c r="D248" t="n">
-        <v>10.69816396766403</v>
+        <v>17</v>
       </c>
       <c r="E248" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -5162,17 +5162,17 @@
         <v>45174</v>
       </c>
       <c r="B249" t="n">
-        <v>15.49839508642236</v>
+        <v>18</v>
       </c>
       <c r="C249" t="n">
-        <v>88.22962161575865</v>
+        <v>39</v>
       </c>
       <c r="D249" t="n">
-        <v>5.804960851198569</v>
+        <v>9</v>
       </c>
       <c r="E249" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -5181,17 +5181,17 @@
         <v>45175</v>
       </c>
       <c r="B250" t="n">
-        <v>14.34543278030132</v>
+        <v>32</v>
       </c>
       <c r="C250" t="n">
-        <v>38.00636590473624</v>
+        <v>83</v>
       </c>
       <c r="D250" t="n">
-        <v>6.083471147784931</v>
+        <v>12</v>
       </c>
       <c r="E250" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -5200,17 +5200,17 @@
         <v>45176</v>
       </c>
       <c r="B251" t="n">
-        <v>24.64168841946864</v>
+        <v>25</v>
       </c>
       <c r="C251" t="n">
-        <v>35.80823719070245</v>
+        <v>35</v>
       </c>
       <c r="D251" t="n">
-        <v>11.8213076166798</v>
+        <v>15</v>
       </c>
       <c r="E251" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -5219,17 +5219,17 @@
         <v>45177</v>
       </c>
       <c r="B252" t="n">
-        <v>20.66838213549867</v>
+        <v>21</v>
       </c>
       <c r="C252" t="n">
-        <v>50.60350372745496</v>
+        <v>63</v>
       </c>
       <c r="D252" t="n">
-        <v>18.43438133741667</v>
+        <v>6</v>
       </c>
       <c r="E252" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -5238,17 +5238,17 @@
         <v>45178</v>
       </c>
       <c r="B253" t="n">
-        <v>38.21295835758439</v>
+        <v>16</v>
       </c>
       <c r="C253" t="n">
-        <v>65.46161405222948</v>
+        <v>37</v>
       </c>
       <c r="D253" t="n">
-        <v>16.1052771115835</v>
+        <v>14</v>
       </c>
       <c r="E253" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -5257,17 +5257,17 @@
         <v>45179</v>
       </c>
       <c r="B254" t="n">
-        <v>32.95975761420895</v>
+        <v>25</v>
       </c>
       <c r="C254" t="n">
-        <v>69.55058831100169</v>
+        <v>60</v>
       </c>
       <c r="D254" t="n">
-        <v>14.47882797002652</v>
+        <v>1</v>
       </c>
       <c r="E254" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -5276,17 +5276,17 @@
         <v>45180</v>
       </c>
       <c r="B255" t="n">
-        <v>32.45990859551642</v>
+        <v>39</v>
       </c>
       <c r="C255" t="n">
-        <v>53.83540483008252</v>
+        <v>38</v>
       </c>
       <c r="D255" t="n">
-        <v>11.18347564203404</v>
+        <v>4</v>
       </c>
       <c r="E255" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -5295,17 +5295,17 @@
         <v>45181</v>
       </c>
       <c r="B256" t="n">
-        <v>37.111592192378</v>
+        <v>35</v>
       </c>
       <c r="C256" t="n">
-        <v>89.95667963533026</v>
+        <v>84</v>
       </c>
       <c r="D256" t="n">
-        <v>18.44597007334895</v>
+        <v>16</v>
       </c>
       <c r="E256" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -5314,13 +5314,13 @@
         <v>45182</v>
       </c>
       <c r="B257" t="n">
-        <v>12.50267306326056</v>
+        <v>11</v>
       </c>
       <c r="C257" t="n">
-        <v>51.11357977158256</v>
+        <v>50</v>
       </c>
       <c r="D257" t="n">
-        <v>9.847228133817683</v>
+        <v>4</v>
       </c>
       <c r="E257" t="inlineStr">
         <is>
@@ -5333,13 +5333,13 @@
         <v>45183</v>
       </c>
       <c r="B258" t="n">
-        <v>26.5657740976722</v>
+        <v>32</v>
       </c>
       <c r="C258" t="n">
-        <v>73.28440007759716</v>
+        <v>37</v>
       </c>
       <c r="D258" t="n">
-        <v>17.47664356669436</v>
+        <v>7</v>
       </c>
       <c r="E258" t="inlineStr">
         <is>
@@ -5352,17 +5352,17 @@
         <v>45184</v>
       </c>
       <c r="B259" t="n">
-        <v>27.53428206867306</v>
+        <v>22</v>
       </c>
       <c r="C259" t="n">
-        <v>68.25496167184758</v>
+        <v>33</v>
       </c>
       <c r="D259" t="n">
-        <v>16.67963287753264</v>
+        <v>14</v>
       </c>
       <c r="E259" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -5371,13 +5371,13 @@
         <v>45185</v>
       </c>
       <c r="B260" t="n">
-        <v>38.85809135641687</v>
+        <v>34</v>
       </c>
       <c r="C260" t="n">
-        <v>78.78323179484764</v>
+        <v>51</v>
       </c>
       <c r="D260" t="n">
-        <v>4.276706936031731</v>
+        <v>7</v>
       </c>
       <c r="E260" t="inlineStr">
         <is>
@@ -5390,17 +5390,17 @@
         <v>45186</v>
       </c>
       <c r="B261" t="n">
-        <v>18.76442580377647</v>
+        <v>39</v>
       </c>
       <c r="C261" t="n">
-        <v>88.5735398072292</v>
+        <v>57</v>
       </c>
       <c r="D261" t="n">
-        <v>15.4245092593182</v>
+        <v>2</v>
       </c>
       <c r="E261" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -5409,17 +5409,17 @@
         <v>45187</v>
       </c>
       <c r="B262" t="n">
-        <v>17.22486339746341</v>
+        <v>34</v>
       </c>
       <c r="C262" t="n">
-        <v>83.38761938673241</v>
+        <v>74</v>
       </c>
       <c r="D262" t="n">
-        <v>0.2434231388651753</v>
+        <v>16</v>
       </c>
       <c r="E262" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -5428,17 +5428,17 @@
         <v>45188</v>
       </c>
       <c r="B263" t="n">
-        <v>13.00881826796493</v>
+        <v>13</v>
       </c>
       <c r="C263" t="n">
-        <v>75.87371846146252</v>
+        <v>33</v>
       </c>
       <c r="D263" t="n">
-        <v>6.45659075096175</v>
+        <v>15</v>
       </c>
       <c r="E263" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -5447,17 +5447,17 @@
         <v>45189</v>
       </c>
       <c r="B264" t="n">
-        <v>10.49288888774423</v>
+        <v>28</v>
       </c>
       <c r="C264" t="n">
-        <v>71.89490866909743</v>
+        <v>68</v>
       </c>
       <c r="D264" t="n">
-        <v>4.591348893838996</v>
+        <v>15</v>
       </c>
       <c r="E264" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -5466,17 +5466,17 @@
         <v>45190</v>
       </c>
       <c r="B265" t="n">
-        <v>37.88587950376571</v>
+        <v>25</v>
       </c>
       <c r="C265" t="n">
-        <v>50.12989018055398</v>
+        <v>50</v>
       </c>
       <c r="D265" t="n">
-        <v>10.13725916974627</v>
+        <v>18</v>
       </c>
       <c r="E265" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -5485,13 +5485,13 @@
         <v>45191</v>
       </c>
       <c r="B266" t="n">
-        <v>30.0974963977273</v>
+        <v>13</v>
       </c>
       <c r="C266" t="n">
-        <v>38.86113469240244</v>
+        <v>37</v>
       </c>
       <c r="D266" t="n">
-        <v>14.73706323361571</v>
+        <v>11</v>
       </c>
       <c r="E266" t="inlineStr">
         <is>
@@ -5504,17 +5504,17 @@
         <v>45192</v>
       </c>
       <c r="B267" t="n">
-        <v>33.55458736069413</v>
+        <v>20</v>
       </c>
       <c r="C267" t="n">
-        <v>33.75816018358859</v>
+        <v>49</v>
       </c>
       <c r="D267" t="n">
-        <v>1.953527348954482</v>
+        <v>14</v>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -5523,17 +5523,17 @@
         <v>45193</v>
       </c>
       <c r="B268" t="n">
-        <v>18.45190317261847</v>
+        <v>22</v>
       </c>
       <c r="C268" t="n">
-        <v>44.51410225208909</v>
+        <v>61</v>
       </c>
       <c r="D268" t="n">
-        <v>10.29844403873537</v>
+        <v>7</v>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -5542,17 +5542,17 @@
         <v>45194</v>
       </c>
       <c r="B269" t="n">
-        <v>27.5923049855898</v>
+        <v>16</v>
       </c>
       <c r="C269" t="n">
-        <v>55.93688887087792</v>
+        <v>30</v>
       </c>
       <c r="D269" t="n">
-        <v>18.76824043388771</v>
+        <v>2</v>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -5561,13 +5561,13 @@
         <v>45195</v>
       </c>
       <c r="B270" t="n">
-        <v>11.91865798362943</v>
+        <v>13</v>
       </c>
       <c r="C270" t="n">
-        <v>61.31977641779895</v>
+        <v>35</v>
       </c>
       <c r="D270" t="n">
-        <v>4.57293101965891</v>
+        <v>17</v>
       </c>
       <c r="E270" t="inlineStr">
         <is>
@@ -5580,17 +5580,17 @@
         <v>45196</v>
       </c>
       <c r="B271" t="n">
-        <v>24.56882787803869</v>
+        <v>32</v>
       </c>
       <c r="C271" t="n">
-        <v>76.38501324329229</v>
+        <v>57</v>
       </c>
       <c r="D271" t="n">
-        <v>13.54282288222848</v>
+        <v>3</v>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -5599,17 +5599,17 @@
         <v>45197</v>
       </c>
       <c r="B272" t="n">
-        <v>39.3248541923334</v>
+        <v>39</v>
       </c>
       <c r="C272" t="n">
-        <v>87.52445538339558</v>
+        <v>73</v>
       </c>
       <c r="D272" t="n">
-        <v>11.85760541562315</v>
+        <v>7</v>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -5618,13 +5618,13 @@
         <v>45198</v>
       </c>
       <c r="B273" t="n">
-        <v>36.29515735949772</v>
+        <v>15</v>
       </c>
       <c r="C273" t="n">
-        <v>37.03922882308866</v>
+        <v>60</v>
       </c>
       <c r="D273" t="n">
-        <v>0.2012739131218666</v>
+        <v>13</v>
       </c>
       <c r="E273" t="inlineStr">
         <is>
@@ -5637,13 +5637,13 @@
         <v>45199</v>
       </c>
       <c r="B274" t="n">
-        <v>20.14476855510537</v>
+        <v>33</v>
       </c>
       <c r="C274" t="n">
-        <v>36.4202484116275</v>
+        <v>39</v>
       </c>
       <c r="D274" t="n">
-        <v>9.516523917144454</v>
+        <v>16</v>
       </c>
       <c r="E274" t="inlineStr">
         <is>
@@ -5656,17 +5656,17 @@
         <v>45200</v>
       </c>
       <c r="B275" t="n">
-        <v>38.84710463624496</v>
+        <v>21</v>
       </c>
       <c r="C275" t="n">
-        <v>65.38168338081304</v>
+        <v>49</v>
       </c>
       <c r="D275" t="n">
-        <v>14.17540781882097</v>
+        <v>5</v>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -5675,17 +5675,17 @@
         <v>45201</v>
       </c>
       <c r="B276" t="n">
-        <v>16.95104879413613</v>
+        <v>10</v>
       </c>
       <c r="C276" t="n">
-        <v>74.72388443683758</v>
+        <v>37</v>
       </c>
       <c r="D276" t="n">
-        <v>0.879508640481812</v>
+        <v>4</v>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -5694,17 +5694,17 @@
         <v>45202</v>
       </c>
       <c r="B277" t="n">
-        <v>38.47956467247045</v>
+        <v>21</v>
       </c>
       <c r="C277" t="n">
-        <v>80.88902282081909</v>
+        <v>51</v>
       </c>
       <c r="D277" t="n">
-        <v>17.5904296604746</v>
+        <v>13</v>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -5713,17 +5713,17 @@
         <v>45203</v>
       </c>
       <c r="B278" t="n">
-        <v>38.24133114119496</v>
+        <v>18</v>
       </c>
       <c r="C278" t="n">
-        <v>86.14992481300732</v>
+        <v>67</v>
       </c>
       <c r="D278" t="n">
-        <v>10.40162833271346</v>
+        <v>5</v>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -5732,17 +5732,17 @@
         <v>45204</v>
       </c>
       <c r="B279" t="n">
-        <v>33.97607762057175</v>
+        <v>30</v>
       </c>
       <c r="C279" t="n">
-        <v>89.00557453563852</v>
+        <v>58</v>
       </c>
       <c r="D279" t="n">
-        <v>0.6132209665143584</v>
+        <v>19</v>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -5751,17 +5751,17 @@
         <v>45205</v>
       </c>
       <c r="B280" t="n">
-        <v>28.91343810600373</v>
+        <v>20</v>
       </c>
       <c r="C280" t="n">
-        <v>53.98810153347155</v>
+        <v>38</v>
       </c>
       <c r="D280" t="n">
-        <v>4.488272238416804</v>
+        <v>11</v>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -5770,13 +5770,13 @@
         <v>45206</v>
       </c>
       <c r="B281" t="n">
-        <v>36.22863899874841</v>
+        <v>32</v>
       </c>
       <c r="C281" t="n">
-        <v>52.82011101165439</v>
+        <v>73</v>
       </c>
       <c r="D281" t="n">
-        <v>19.07351392854626</v>
+        <v>8</v>
       </c>
       <c r="E281" t="inlineStr">
         <is>
@@ -5789,17 +5789,17 @@
         <v>45207</v>
       </c>
       <c r="B282" t="n">
-        <v>18.7906085352339</v>
+        <v>21</v>
       </c>
       <c r="C282" t="n">
-        <v>38.86852060183634</v>
+        <v>76</v>
       </c>
       <c r="D282" t="n">
-        <v>11.64639466104111</v>
+        <v>0</v>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -5808,17 +5808,17 @@
         <v>45208</v>
       </c>
       <c r="B283" t="n">
-        <v>35.46830665938755</v>
+        <v>15</v>
       </c>
       <c r="C283" t="n">
-        <v>71.09606632101357</v>
+        <v>30</v>
       </c>
       <c r="D283" t="n">
-        <v>2.149451355376091</v>
+        <v>17</v>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -5827,13 +5827,13 @@
         <v>45209</v>
       </c>
       <c r="B284" t="n">
-        <v>28.53630075752572</v>
+        <v>39</v>
       </c>
       <c r="C284" t="n">
-        <v>69.40571750645023</v>
+        <v>70</v>
       </c>
       <c r="D284" t="n">
-        <v>5.75089004561123</v>
+        <v>5</v>
       </c>
       <c r="E284" t="inlineStr">
         <is>
@@ -5846,17 +5846,17 @@
         <v>45210</v>
       </c>
       <c r="B285" t="n">
-        <v>10.39710573276698</v>
+        <v>38</v>
       </c>
       <c r="C285" t="n">
-        <v>81.72375575107245</v>
+        <v>81</v>
       </c>
       <c r="D285" t="n">
-        <v>9.134072517209685</v>
+        <v>4</v>
       </c>
       <c r="E285" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -5865,17 +5865,17 @@
         <v>45211</v>
       </c>
       <c r="B286" t="n">
-        <v>20.41700553796659</v>
+        <v>25</v>
       </c>
       <c r="C286" t="n">
-        <v>35.83547968725844</v>
+        <v>68</v>
       </c>
       <c r="D286" t="n">
-        <v>0.4190013853546093</v>
+        <v>1</v>
       </c>
       <c r="E286" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -5884,17 +5884,17 @@
         <v>45212</v>
       </c>
       <c r="B287" t="n">
-        <v>14.44422582844495</v>
+        <v>18</v>
       </c>
       <c r="C287" t="n">
-        <v>59.86661446952051</v>
+        <v>55</v>
       </c>
       <c r="D287" t="n">
-        <v>8.232310272275177</v>
+        <v>5</v>
       </c>
       <c r="E287" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -5903,17 +5903,17 @@
         <v>45213</v>
       </c>
       <c r="B288" t="n">
-        <v>39.45488169454759</v>
+        <v>12</v>
       </c>
       <c r="C288" t="n">
-        <v>64.86491578032378</v>
+        <v>40</v>
       </c>
       <c r="D288" t="n">
-        <v>9.789172708693963</v>
+        <v>16</v>
       </c>
       <c r="E288" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -5922,13 +5922,13 @@
         <v>45214</v>
       </c>
       <c r="B289" t="n">
-        <v>24.35110921119964</v>
+        <v>37</v>
       </c>
       <c r="C289" t="n">
-        <v>44.4934224023951</v>
+        <v>81</v>
       </c>
       <c r="D289" t="n">
-        <v>4.873557505624644</v>
+        <v>6</v>
       </c>
       <c r="E289" t="inlineStr">
         <is>
@@ -5941,13 +5941,13 @@
         <v>45215</v>
       </c>
       <c r="B290" t="n">
-        <v>24.92174096495988</v>
+        <v>29</v>
       </c>
       <c r="C290" t="n">
-        <v>40.14152436774967</v>
+        <v>64</v>
       </c>
       <c r="D290" t="n">
-        <v>11.77278000583973</v>
+        <v>8</v>
       </c>
       <c r="E290" t="inlineStr">
         <is>
@@ -5960,17 +5960,17 @@
         <v>45216</v>
       </c>
       <c r="B291" t="n">
-        <v>29.18417549196171</v>
+        <v>35</v>
       </c>
       <c r="C291" t="n">
-        <v>81.5748501851773</v>
+        <v>89</v>
       </c>
       <c r="D291" t="n">
-        <v>15.06480239184354</v>
+        <v>19</v>
       </c>
       <c r="E291" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -5979,17 +5979,17 @@
         <v>45217</v>
       </c>
       <c r="B292" t="n">
-        <v>21.05753818388852</v>
+        <v>33</v>
       </c>
       <c r="C292" t="n">
-        <v>33.51209533413353</v>
+        <v>53</v>
       </c>
       <c r="D292" t="n">
-        <v>4.71668448211271</v>
+        <v>4</v>
       </c>
       <c r="E292" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -5998,17 +5998,17 @@
         <v>45218</v>
       </c>
       <c r="B293" t="n">
-        <v>14.10700815056797</v>
+        <v>31</v>
       </c>
       <c r="C293" t="n">
-        <v>58.23725423508437</v>
+        <v>62</v>
       </c>
       <c r="D293" t="n">
-        <v>12.40999800559975</v>
+        <v>10</v>
       </c>
       <c r="E293" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -6017,17 +6017,17 @@
         <v>45219</v>
       </c>
       <c r="B294" t="n">
-        <v>34.66353199582737</v>
+        <v>29</v>
       </c>
       <c r="C294" t="n">
-        <v>36.95004007805312</v>
+        <v>49</v>
       </c>
       <c r="D294" t="n">
-        <v>12.79244485927483</v>
+        <v>10</v>
       </c>
       <c r="E294" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -6036,13 +6036,13 @@
         <v>45220</v>
       </c>
       <c r="B295" t="n">
-        <v>15.69543735708274</v>
+        <v>24</v>
       </c>
       <c r="C295" t="n">
-        <v>57.42352567988204</v>
+        <v>56</v>
       </c>
       <c r="D295" t="n">
-        <v>18.97080602257682</v>
+        <v>3</v>
       </c>
       <c r="E295" t="inlineStr">
         <is>
@@ -6055,17 +6055,17 @@
         <v>45221</v>
       </c>
       <c r="B296" t="n">
-        <v>25.33956947639368</v>
+        <v>30</v>
       </c>
       <c r="C296" t="n">
-        <v>88.79773958053855</v>
+        <v>44</v>
       </c>
       <c r="D296" t="n">
-        <v>15.56552334592888</v>
+        <v>5</v>
       </c>
       <c r="E296" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -6074,13 +6074,13 @@
         <v>45222</v>
       </c>
       <c r="B297" t="n">
-        <v>16.72951086924218</v>
+        <v>31</v>
       </c>
       <c r="C297" t="n">
-        <v>55.42238120732837</v>
+        <v>62</v>
       </c>
       <c r="D297" t="n">
-        <v>16.96690539580012</v>
+        <v>9</v>
       </c>
       <c r="E297" t="inlineStr">
         <is>
@@ -6093,13 +6093,13 @@
         <v>45223</v>
       </c>
       <c r="B298" t="n">
-        <v>12.93533453482102</v>
+        <v>39</v>
       </c>
       <c r="C298" t="n">
-        <v>81.42749505027405</v>
+        <v>81</v>
       </c>
       <c r="D298" t="n">
-        <v>9.808398168725503</v>
+        <v>8</v>
       </c>
       <c r="E298" t="inlineStr">
         <is>
@@ -6112,13 +6112,13 @@
         <v>45224</v>
       </c>
       <c r="B299" t="n">
-        <v>35.8657455226505</v>
+        <v>13</v>
       </c>
       <c r="C299" t="n">
-        <v>37.03893385099163</v>
+        <v>36</v>
       </c>
       <c r="D299" t="n">
-        <v>3.706971739587657</v>
+        <v>17</v>
       </c>
       <c r="E299" t="inlineStr">
         <is>
@@ -6131,13 +6131,13 @@
         <v>45225</v>
       </c>
       <c r="B300" t="n">
-        <v>39.18758467069391</v>
+        <v>13</v>
       </c>
       <c r="C300" t="n">
-        <v>46.27512460571185</v>
+        <v>63</v>
       </c>
       <c r="D300" t="n">
-        <v>19.9163058591927</v>
+        <v>19</v>
       </c>
       <c r="E300" t="inlineStr">
         <is>
@@ -6150,17 +6150,17 @@
         <v>45226</v>
       </c>
       <c r="B301" t="n">
-        <v>38.82503974189001</v>
+        <v>17</v>
       </c>
       <c r="C301" t="n">
-        <v>54.22756444004007</v>
+        <v>74</v>
       </c>
       <c r="D301" t="n">
-        <v>2.587115220773992</v>
+        <v>8</v>
       </c>
       <c r="E301" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -6169,17 +6169,17 @@
         <v>45227</v>
       </c>
       <c r="B302" t="n">
-        <v>37.19666497663537</v>
+        <v>19</v>
       </c>
       <c r="C302" t="n">
-        <v>53.98872840055984</v>
+        <v>89</v>
       </c>
       <c r="D302" t="n">
-        <v>9.429146387085307</v>
+        <v>10</v>
       </c>
       <c r="E302" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -6188,17 +6188,17 @@
         <v>45228</v>
       </c>
       <c r="B303" t="n">
-        <v>33.22141998095916</v>
+        <v>19</v>
       </c>
       <c r="C303" t="n">
-        <v>70.28300872020918</v>
+        <v>87</v>
       </c>
       <c r="D303" t="n">
-        <v>1.361861984842132</v>
+        <v>1</v>
       </c>
       <c r="E303" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -6207,13 +6207,13 @@
         <v>45229</v>
       </c>
       <c r="B304" t="n">
-        <v>19.99435456085926</v>
+        <v>19</v>
       </c>
       <c r="C304" t="n">
-        <v>50.68308764253046</v>
+        <v>80</v>
       </c>
       <c r="D304" t="n">
-        <v>18.87701714701639</v>
+        <v>14</v>
       </c>
       <c r="E304" t="inlineStr">
         <is>
@@ -6226,17 +6226,17 @@
         <v>45230</v>
       </c>
       <c r="B305" t="n">
-        <v>12.4330416996399</v>
+        <v>33</v>
       </c>
       <c r="C305" t="n">
-        <v>72.82601210460098</v>
+        <v>75</v>
       </c>
       <c r="D305" t="n">
-        <v>19.29849881696879</v>
+        <v>5</v>
       </c>
       <c r="E305" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -6245,13 +6245,13 @@
         <v>45231</v>
       </c>
       <c r="B306" t="n">
-        <v>22.21723514241422</v>
+        <v>13</v>
       </c>
       <c r="C306" t="n">
-        <v>68.35121395352354</v>
+        <v>71</v>
       </c>
       <c r="D306" t="n">
-        <v>14.38778124007947</v>
+        <v>16</v>
       </c>
       <c r="E306" t="inlineStr">
         <is>
@@ -6264,13 +6264,13 @@
         <v>45232</v>
       </c>
       <c r="B307" t="n">
-        <v>16.96702426512828</v>
+        <v>24</v>
       </c>
       <c r="C307" t="n">
-        <v>53.94966871528639</v>
+        <v>34</v>
       </c>
       <c r="D307" t="n">
-        <v>6.999856872603378</v>
+        <v>3</v>
       </c>
       <c r="E307" t="inlineStr">
         <is>
@@ -6283,17 +6283,17 @@
         <v>45233</v>
       </c>
       <c r="B308" t="n">
-        <v>13.97462904273949</v>
+        <v>36</v>
       </c>
       <c r="C308" t="n">
-        <v>55.90560765925915</v>
+        <v>87</v>
       </c>
       <c r="D308" t="n">
-        <v>5.087648022352487</v>
+        <v>7</v>
       </c>
       <c r="E308" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -6302,17 +6302,17 @@
         <v>45234</v>
       </c>
       <c r="B309" t="n">
-        <v>11.60281545360476</v>
+        <v>28</v>
       </c>
       <c r="C309" t="n">
-        <v>66.87166198861925</v>
+        <v>59</v>
       </c>
       <c r="D309" t="n">
-        <v>5.306066490740948</v>
+        <v>1</v>
       </c>
       <c r="E309" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -6321,13 +6321,13 @@
         <v>45235</v>
       </c>
       <c r="B310" t="n">
-        <v>31.76783092631736</v>
+        <v>22</v>
       </c>
       <c r="C310" t="n">
-        <v>34.20253140867868</v>
+        <v>57</v>
       </c>
       <c r="D310" t="n">
-        <v>2.545880508401495</v>
+        <v>8</v>
       </c>
       <c r="E310" t="inlineStr">
         <is>
@@ -6340,17 +6340,17 @@
         <v>45236</v>
       </c>
       <c r="B311" t="n">
-        <v>10.34282375875093</v>
+        <v>13</v>
       </c>
       <c r="C311" t="n">
-        <v>79.34440430134143</v>
+        <v>47</v>
       </c>
       <c r="D311" t="n">
-        <v>10.51617906153446</v>
+        <v>0</v>
       </c>
       <c r="E311" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -6359,17 +6359,17 @@
         <v>45237</v>
       </c>
       <c r="B312" t="n">
-        <v>33.11742245508329</v>
+        <v>19</v>
       </c>
       <c r="C312" t="n">
-        <v>69.20526966681821</v>
+        <v>65</v>
       </c>
       <c r="D312" t="n">
-        <v>2.83634551402955</v>
+        <v>5</v>
       </c>
       <c r="E312" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -6378,17 +6378,17 @@
         <v>45238</v>
       </c>
       <c r="B313" t="n">
-        <v>14.40839936201125</v>
+        <v>20</v>
       </c>
       <c r="C313" t="n">
-        <v>73.58054786507012</v>
+        <v>32</v>
       </c>
       <c r="D313" t="n">
-        <v>6.334613331069125</v>
+        <v>15</v>
       </c>
       <c r="E313" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -6397,17 +6397,17 @@
         <v>45239</v>
       </c>
       <c r="B314" t="n">
-        <v>12.38566247760267</v>
+        <v>37</v>
       </c>
       <c r="C314" t="n">
-        <v>62.21538006494342</v>
+        <v>50</v>
       </c>
       <c r="D314" t="n">
-        <v>12.5341295191821</v>
+        <v>6</v>
       </c>
       <c r="E314" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -6416,17 +6416,17 @@
         <v>45240</v>
       </c>
       <c r="B315" t="n">
-        <v>12.68809102715816</v>
+        <v>23</v>
       </c>
       <c r="C315" t="n">
-        <v>36.62862665950468</v>
+        <v>75</v>
       </c>
       <c r="D315" t="n">
-        <v>14.550872191815</v>
+        <v>15</v>
       </c>
       <c r="E315" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -6435,17 +6435,17 @@
         <v>45241</v>
       </c>
       <c r="B316" t="n">
-        <v>30.16143422061743</v>
+        <v>17</v>
       </c>
       <c r="C316" t="n">
-        <v>54.302136797817</v>
+        <v>87</v>
       </c>
       <c r="D316" t="n">
-        <v>0.4854540924412243</v>
+        <v>5</v>
       </c>
       <c r="E316" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -6454,13 +6454,13 @@
         <v>45242</v>
       </c>
       <c r="B317" t="n">
-        <v>17.36101629558534</v>
+        <v>17</v>
       </c>
       <c r="C317" t="n">
-        <v>54.32241497091336</v>
+        <v>45</v>
       </c>
       <c r="D317" t="n">
-        <v>8.602319687534798</v>
+        <v>9</v>
       </c>
       <c r="E317" t="inlineStr">
         <is>
@@ -6473,17 +6473,17 @@
         <v>45243</v>
       </c>
       <c r="B318" t="n">
-        <v>22.61618400040295</v>
+        <v>39</v>
       </c>
       <c r="C318" t="n">
-        <v>49.26257940259302</v>
+        <v>85</v>
       </c>
       <c r="D318" t="n">
-        <v>13.04249189684278</v>
+        <v>17</v>
       </c>
       <c r="E318" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -6492,17 +6492,17 @@
         <v>45244</v>
       </c>
       <c r="B319" t="n">
-        <v>26.72106373971751</v>
+        <v>31</v>
       </c>
       <c r="C319" t="n">
-        <v>31.79701949428496</v>
+        <v>66</v>
       </c>
       <c r="D319" t="n">
-        <v>17.06491952317026</v>
+        <v>16</v>
       </c>
       <c r="E319" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -6511,17 +6511,17 @@
         <v>45245</v>
       </c>
       <c r="B320" t="n">
-        <v>35.81653521486381</v>
+        <v>11</v>
       </c>
       <c r="C320" t="n">
-        <v>74.23525455578863</v>
+        <v>71</v>
       </c>
       <c r="D320" t="n">
-        <v>9.506495644241648</v>
+        <v>16</v>
       </c>
       <c r="E320" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -6530,17 +6530,17 @@
         <v>45246</v>
       </c>
       <c r="B321" t="n">
-        <v>31.81132788133985</v>
+        <v>22</v>
       </c>
       <c r="C321" t="n">
-        <v>36.58706748375004</v>
+        <v>34</v>
       </c>
       <c r="D321" t="n">
-        <v>19.3841174343537</v>
+        <v>11</v>
       </c>
       <c r="E321" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -6549,17 +6549,17 @@
         <v>45247</v>
       </c>
       <c r="B322" t="n">
-        <v>18.10983715716144</v>
+        <v>12</v>
       </c>
       <c r="C322" t="n">
-        <v>66.37848798270511</v>
+        <v>79</v>
       </c>
       <c r="D322" t="n">
-        <v>5.312650950828946</v>
+        <v>14</v>
       </c>
       <c r="E322" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -6568,17 +6568,17 @@
         <v>45248</v>
       </c>
       <c r="B323" t="n">
-        <v>13.94448397873383</v>
+        <v>12</v>
       </c>
       <c r="C323" t="n">
-        <v>72.19304978803294</v>
+        <v>80</v>
       </c>
       <c r="D323" t="n">
-        <v>0.2701741325343776</v>
+        <v>5</v>
       </c>
       <c r="E323" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -6587,17 +6587,17 @@
         <v>45249</v>
       </c>
       <c r="B324" t="n">
-        <v>11.66122961263594</v>
+        <v>34</v>
       </c>
       <c r="C324" t="n">
-        <v>68.08717937602168</v>
+        <v>43</v>
       </c>
       <c r="D324" t="n">
-        <v>9.675057294034723</v>
+        <v>19</v>
       </c>
       <c r="E324" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -6606,17 +6606,17 @@
         <v>45250</v>
       </c>
       <c r="B325" t="n">
-        <v>19.04795903442827</v>
+        <v>11</v>
       </c>
       <c r="C325" t="n">
-        <v>87.5485351186785</v>
+        <v>60</v>
       </c>
       <c r="D325" t="n">
-        <v>5.122275900400359</v>
+        <v>15</v>
       </c>
       <c r="E325" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -6625,17 +6625,17 @@
         <v>45251</v>
       </c>
       <c r="B326" t="n">
-        <v>17.86354447719035</v>
+        <v>15</v>
       </c>
       <c r="C326" t="n">
-        <v>36.19788930510832</v>
+        <v>75</v>
       </c>
       <c r="D326" t="n">
-        <v>16.47435344046339</v>
+        <v>13</v>
       </c>
       <c r="E326" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -6644,17 +6644,17 @@
         <v>45252</v>
       </c>
       <c r="B327" t="n">
-        <v>23.68421700401439</v>
+        <v>18</v>
       </c>
       <c r="C327" t="n">
-        <v>82.03002954631195</v>
+        <v>53</v>
       </c>
       <c r="D327" t="n">
-        <v>4.655453443622242</v>
+        <v>11</v>
       </c>
       <c r="E327" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -6663,13 +6663,13 @@
         <v>45253</v>
       </c>
       <c r="B328" t="n">
-        <v>30.49844006643041</v>
+        <v>14</v>
       </c>
       <c r="C328" t="n">
-        <v>31.75141409093479</v>
+        <v>64</v>
       </c>
       <c r="D328" t="n">
-        <v>6.212584365826126</v>
+        <v>11</v>
       </c>
       <c r="E328" t="inlineStr">
         <is>
@@ -6682,17 +6682,17 @@
         <v>45254</v>
       </c>
       <c r="B329" t="n">
-        <v>30.86876336916572</v>
+        <v>10</v>
       </c>
       <c r="C329" t="n">
-        <v>62.09501129562504</v>
+        <v>65</v>
       </c>
       <c r="D329" t="n">
-        <v>15.82454862038225</v>
+        <v>1</v>
       </c>
       <c r="E329" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -6701,17 +6701,17 @@
         <v>45255</v>
       </c>
       <c r="B330" t="n">
-        <v>18.505565397465</v>
+        <v>21</v>
       </c>
       <c r="C330" t="n">
-        <v>54.25461707635553</v>
+        <v>39</v>
       </c>
       <c r="D330" t="n">
-        <v>14.3028650405072</v>
+        <v>7</v>
       </c>
       <c r="E330" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -6720,17 +6720,17 @@
         <v>45256</v>
       </c>
       <c r="B331" t="n">
-        <v>21.39780867700362</v>
+        <v>12</v>
       </c>
       <c r="C331" t="n">
-        <v>61.4510316236255</v>
+        <v>56</v>
       </c>
       <c r="D331" t="n">
-        <v>11.16102473314525</v>
+        <v>16</v>
       </c>
       <c r="E331" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -6739,17 +6739,17 @@
         <v>45257</v>
       </c>
       <c r="B332" t="n">
-        <v>15.43452885210709</v>
+        <v>15</v>
       </c>
       <c r="C332" t="n">
-        <v>51.90599262360059</v>
+        <v>85</v>
       </c>
       <c r="D332" t="n">
-        <v>14.09896123845519</v>
+        <v>7</v>
       </c>
       <c r="E332" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -6758,13 +6758,13 @@
         <v>45258</v>
       </c>
       <c r="B333" t="n">
-        <v>33.65636536919556</v>
+        <v>31</v>
       </c>
       <c r="C333" t="n">
-        <v>41.43401489640408</v>
+        <v>56</v>
       </c>
       <c r="D333" t="n">
-        <v>8.372737271400529</v>
+        <v>15</v>
       </c>
       <c r="E333" t="inlineStr">
         <is>
@@ -6777,13 +6777,13 @@
         <v>45259</v>
       </c>
       <c r="B334" t="n">
-        <v>11.70544229299721</v>
+        <v>26</v>
       </c>
       <c r="C334" t="n">
-        <v>31.14737384692139</v>
+        <v>84</v>
       </c>
       <c r="D334" t="n">
-        <v>0.106200952293356</v>
+        <v>0</v>
       </c>
       <c r="E334" t="inlineStr">
         <is>
@@ -6796,17 +6796,17 @@
         <v>45260</v>
       </c>
       <c r="B335" t="n">
-        <v>30.90991725174962</v>
+        <v>18</v>
       </c>
       <c r="C335" t="n">
-        <v>61.08898882747046</v>
+        <v>52</v>
       </c>
       <c r="D335" t="n">
-        <v>0.2271025702438512</v>
+        <v>4</v>
       </c>
       <c r="E335" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -6815,17 +6815,17 @@
         <v>45261</v>
       </c>
       <c r="B336" t="n">
-        <v>33.3608618782331</v>
+        <v>39</v>
       </c>
       <c r="C336" t="n">
-        <v>80.56661176109054</v>
+        <v>42</v>
       </c>
       <c r="D336" t="n">
-        <v>10.22443575147373</v>
+        <v>18</v>
       </c>
       <c r="E336" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -6834,17 +6834,17 @@
         <v>45262</v>
       </c>
       <c r="B337" t="n">
-        <v>33.3222268554626</v>
+        <v>11</v>
       </c>
       <c r="C337" t="n">
-        <v>52.39295734468764</v>
+        <v>45</v>
       </c>
       <c r="D337" t="n">
-        <v>1.665819594379985</v>
+        <v>2</v>
       </c>
       <c r="E337" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -6853,13 +6853,13 @@
         <v>45263</v>
       </c>
       <c r="B338" t="n">
-        <v>17.78267693036065</v>
+        <v>27</v>
       </c>
       <c r="C338" t="n">
-        <v>43.37182908089881</v>
+        <v>64</v>
       </c>
       <c r="D338" t="n">
-        <v>1.021509603385136</v>
+        <v>8</v>
       </c>
       <c r="E338" t="inlineStr">
         <is>
@@ -6872,17 +6872,17 @@
         <v>45264</v>
       </c>
       <c r="B339" t="n">
-        <v>21.21439413797684</v>
+        <v>26</v>
       </c>
       <c r="C339" t="n">
-        <v>34.83192020831065</v>
+        <v>56</v>
       </c>
       <c r="D339" t="n">
-        <v>19.31033278274947</v>
+        <v>10</v>
       </c>
       <c r="E339" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -6891,17 +6891,17 @@
         <v>45265</v>
       </c>
       <c r="B340" t="n">
-        <v>27.62798905589167</v>
+        <v>13</v>
       </c>
       <c r="C340" t="n">
-        <v>35.1186553871222</v>
+        <v>81</v>
       </c>
       <c r="D340" t="n">
-        <v>17.18005279316117</v>
+        <v>5</v>
       </c>
       <c r="E340" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -6910,13 +6910,13 @@
         <v>45266</v>
       </c>
       <c r="B341" t="n">
-        <v>18.18465707273401</v>
+        <v>34</v>
       </c>
       <c r="C341" t="n">
-        <v>43.28378677756633</v>
+        <v>68</v>
       </c>
       <c r="D341" t="n">
-        <v>3.04054454419139</v>
+        <v>6</v>
       </c>
       <c r="E341" t="inlineStr">
         <is>
@@ -6929,13 +6929,13 @@
         <v>45267</v>
       </c>
       <c r="B342" t="n">
-        <v>21.12558397653666</v>
+        <v>37</v>
       </c>
       <c r="C342" t="n">
-        <v>36.00084365529331</v>
+        <v>76</v>
       </c>
       <c r="D342" t="n">
-        <v>0.01328437180408981</v>
+        <v>6</v>
       </c>
       <c r="E342" t="inlineStr">
         <is>
@@ -6948,17 +6948,17 @@
         <v>45268</v>
       </c>
       <c r="B343" t="n">
-        <v>15.91162840556919</v>
+        <v>18</v>
       </c>
       <c r="C343" t="n">
-        <v>45.90238190186892</v>
+        <v>46</v>
       </c>
       <c r="D343" t="n">
-        <v>18.83335590779513</v>
+        <v>4</v>
       </c>
       <c r="E343" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -6967,17 +6967,17 @@
         <v>45269</v>
       </c>
       <c r="B344" t="n">
-        <v>23.79567651268022</v>
+        <v>30</v>
       </c>
       <c r="C344" t="n">
-        <v>33.96896772701729</v>
+        <v>77</v>
       </c>
       <c r="D344" t="n">
-        <v>5.566505966402286</v>
+        <v>1</v>
       </c>
       <c r="E344" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -6986,13 +6986,13 @@
         <v>45270</v>
       </c>
       <c r="B345" t="n">
-        <v>11.33836903762342</v>
+        <v>14</v>
       </c>
       <c r="C345" t="n">
-        <v>33.93629203259554</v>
+        <v>88</v>
       </c>
       <c r="D345" t="n">
-        <v>3.71795205710995</v>
+        <v>4</v>
       </c>
       <c r="E345" t="inlineStr">
         <is>
@@ -7005,17 +7005,17 @@
         <v>45271</v>
       </c>
       <c r="B346" t="n">
-        <v>33.99387653711854</v>
+        <v>26</v>
       </c>
       <c r="C346" t="n">
-        <v>81.37657077736691</v>
+        <v>70</v>
       </c>
       <c r="D346" t="n">
-        <v>13.83016215663071</v>
+        <v>5</v>
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -7024,13 +7024,13 @@
         <v>45272</v>
       </c>
       <c r="B347" t="n">
-        <v>12.30869340959898</v>
+        <v>35</v>
       </c>
       <c r="C347" t="n">
-        <v>39.72721564253</v>
+        <v>30</v>
       </c>
       <c r="D347" t="n">
-        <v>2.178074776826524</v>
+        <v>5</v>
       </c>
       <c r="E347" t="inlineStr">
         <is>
@@ -7043,17 +7043,17 @@
         <v>45273</v>
       </c>
       <c r="B348" t="n">
-        <v>25.56505446494578</v>
+        <v>13</v>
       </c>
       <c r="C348" t="n">
-        <v>63.58094434940688</v>
+        <v>40</v>
       </c>
       <c r="D348" t="n">
-        <v>5.292991960056006</v>
+        <v>6</v>
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -7062,13 +7062,13 @@
         <v>45274</v>
       </c>
       <c r="B349" t="n">
-        <v>19.20430298635588</v>
+        <v>17</v>
       </c>
       <c r="C349" t="n">
-        <v>76.40733266694184</v>
+        <v>41</v>
       </c>
       <c r="D349" t="n">
-        <v>19.50189360424093</v>
+        <v>3</v>
       </c>
       <c r="E349" t="inlineStr">
         <is>
@@ -7081,17 +7081,17 @@
         <v>45275</v>
       </c>
       <c r="B350" t="n">
-        <v>27.32628846494126</v>
+        <v>38</v>
       </c>
       <c r="C350" t="n">
-        <v>57.384573920344</v>
+        <v>43</v>
       </c>
       <c r="D350" t="n">
-        <v>12.7892554894802</v>
+        <v>17</v>
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -7100,17 +7100,17 @@
         <v>45276</v>
       </c>
       <c r="B351" t="n">
-        <v>38.78300022500275</v>
+        <v>13</v>
       </c>
       <c r="C351" t="n">
-        <v>39.20213267156075</v>
+        <v>37</v>
       </c>
       <c r="D351" t="n">
-        <v>10.41355582965107</v>
+        <v>15</v>
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -7119,17 +7119,17 @@
         <v>45277</v>
       </c>
       <c r="B352" t="n">
-        <v>29.36710733368012</v>
+        <v>28</v>
       </c>
       <c r="C352" t="n">
-        <v>41.97576852720686</v>
+        <v>60</v>
       </c>
       <c r="D352" t="n">
-        <v>7.958372296698755</v>
+        <v>18</v>
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -7138,13 +7138,13 @@
         <v>45278</v>
       </c>
       <c r="B353" t="n">
-        <v>11.06087307266473</v>
+        <v>39</v>
       </c>
       <c r="C353" t="n">
-        <v>55.97905237687084</v>
+        <v>36</v>
       </c>
       <c r="D353" t="n">
-        <v>15.49001909768404</v>
+        <v>9</v>
       </c>
       <c r="E353" t="inlineStr">
         <is>
@@ -7157,17 +7157,17 @@
         <v>45279</v>
       </c>
       <c r="B354" t="n">
-        <v>22.91207318524184</v>
+        <v>27</v>
       </c>
       <c r="C354" t="n">
-        <v>61.69404535071214</v>
+        <v>75</v>
       </c>
       <c r="D354" t="n">
-        <v>2.819149530473875</v>
+        <v>4</v>
       </c>
       <c r="E354" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -7176,17 +7176,17 @@
         <v>45280</v>
       </c>
       <c r="B355" t="n">
-        <v>25.30050556954751</v>
+        <v>11</v>
       </c>
       <c r="C355" t="n">
-        <v>50.9664175229121</v>
+        <v>83</v>
       </c>
       <c r="D355" t="n">
-        <v>19.34675604073964</v>
+        <v>17</v>
       </c>
       <c r="E355" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -7195,17 +7195,17 @@
         <v>45281</v>
       </c>
       <c r="B356" t="n">
-        <v>26.08532484110356</v>
+        <v>28</v>
       </c>
       <c r="C356" t="n">
-        <v>76.88877601407968</v>
+        <v>60</v>
       </c>
       <c r="D356" t="n">
-        <v>17.22246016131573</v>
+        <v>2</v>
       </c>
       <c r="E356" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -7214,13 +7214,13 @@
         <v>45282</v>
       </c>
       <c r="B357" t="n">
-        <v>30.44177531811514</v>
+        <v>27</v>
       </c>
       <c r="C357" t="n">
-        <v>75.0612989313839</v>
+        <v>45</v>
       </c>
       <c r="D357" t="n">
-        <v>12.35313965138486</v>
+        <v>19</v>
       </c>
       <c r="E357" t="inlineStr">
         <is>
@@ -7233,17 +7233,17 @@
         <v>45283</v>
       </c>
       <c r="B358" t="n">
-        <v>18.32788293195298</v>
+        <v>39</v>
       </c>
       <c r="C358" t="n">
-        <v>85.63270844238707</v>
+        <v>71</v>
       </c>
       <c r="D358" t="n">
-        <v>0.8581238080511633</v>
+        <v>3</v>
       </c>
       <c r="E358" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -7252,17 +7252,17 @@
         <v>45284</v>
       </c>
       <c r="B359" t="n">
-        <v>13.86581696398961</v>
+        <v>30</v>
       </c>
       <c r="C359" t="n">
-        <v>31.73715294161763</v>
+        <v>68</v>
       </c>
       <c r="D359" t="n">
-        <v>14.01711298895475</v>
+        <v>13</v>
       </c>
       <c r="E359" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Cloudy</t>
         </is>
       </c>
     </row>
@@ -7271,17 +7271,17 @@
         <v>45285</v>
       </c>
       <c r="B360" t="n">
-        <v>21.78027029641283</v>
+        <v>39</v>
       </c>
       <c r="C360" t="n">
-        <v>83.7414774726122</v>
+        <v>83</v>
       </c>
       <c r="D360" t="n">
-        <v>18.26568681770962</v>
+        <v>11</v>
       </c>
       <c r="E360" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -7290,17 +7290,17 @@
         <v>45286</v>
       </c>
       <c r="B361" t="n">
-        <v>38.69217168387846</v>
+        <v>12</v>
       </c>
       <c r="C361" t="n">
-        <v>53.55412730772906</v>
+        <v>73</v>
       </c>
       <c r="D361" t="n">
-        <v>10.49154134957252</v>
+        <v>13</v>
       </c>
       <c r="E361" t="inlineStr">
         <is>
-          <t>Cloudy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
@@ -7309,13 +7309,13 @@
         <v>45287</v>
       </c>
       <c r="B362" t="n">
-        <v>15.61392675252534</v>
+        <v>15</v>
       </c>
       <c r="C362" t="n">
-        <v>82.70234972279965</v>
+        <v>48</v>
       </c>
       <c r="D362" t="n">
-        <v>7.084496436545256</v>
+        <v>4</v>
       </c>
       <c r="E362" t="inlineStr">
         <is>
@@ -7328,17 +7328,17 @@
         <v>45288</v>
       </c>
       <c r="B363" t="n">
-        <v>37.11951864784712</v>
+        <v>15</v>
       </c>
       <c r="C363" t="n">
-        <v>71.44708656939177</v>
+        <v>37</v>
       </c>
       <c r="D363" t="n">
-        <v>2.405546899589392</v>
+        <v>17</v>
       </c>
       <c r="E363" t="inlineStr">
         <is>
-          <t>Sunny</t>
+          <t>Rainy</t>
         </is>
       </c>
     </row>
@@ -7347,13 +7347,13 @@
         <v>45289</v>
       </c>
       <c r="B364" t="n">
-        <v>26.31417850231979</v>
+        <v>22</v>
       </c>
       <c r="C364" t="n">
-        <v>89.24092542443809</v>
+        <v>58</v>
       </c>
       <c r="D364" t="n">
-        <v>15.09802208275137</v>
+        <v>6</v>
       </c>
       <c r="E364" t="inlineStr">
         <is>
@@ -7366,13 +7366,13 @@
         <v>45290</v>
       </c>
       <c r="B365" t="n">
-        <v>23.70734264937298</v>
+        <v>22</v>
       </c>
       <c r="C365" t="n">
-        <v>75.55694710300008</v>
+        <v>31</v>
       </c>
       <c r="D365" t="n">
-        <v>17.70043702423612</v>
+        <v>15</v>
       </c>
       <c r="E365" t="inlineStr">
         <is>
@@ -7385,17 +7385,17 @@
         <v>45291</v>
       </c>
       <c r="B366" t="n">
-        <v>36.46124230689669</v>
+        <v>31</v>
       </c>
       <c r="C366" t="n">
-        <v>51.8726775598072</v>
+        <v>71</v>
       </c>
       <c r="D366" t="n">
-        <v>2.005034881516972</v>
+        <v>2</v>
       </c>
       <c r="E366" t="inlineStr">
         <is>
-          <t>Rainy</t>
+          <t>Sunny</t>
         </is>
       </c>
     </row>
